--- a/src/main/resources/websheet/linecharts1.xlsx
+++ b/src/main/resources/websheet/linecharts1.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28710" windowHeight="13080"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28716" windowHeight="13080"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -12,12 +12,11 @@
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="144525"/>
-  <extLst/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="12">
   <si>
     <t>Month</t>
   </si>
@@ -54,29 +53,11 @@
   <si>
     <t>Aug</t>
   </si>
-  <si>
-    <t>Sep</t>
-  </si>
-  <si>
-    <t>Oct</t>
-  </si>
-  <si>
-    <t>Nov</t>
-  </si>
-  <si>
-    <t>Dec</t>
-  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="4">
-    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-  </numFmts>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="1">
     <font>
       <sz val="11"/>
@@ -109,27 +90,12 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="6">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -138,38 +104,36 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="6">
+  <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Comma" xfId="1" builtinId="3"/>
-    <cellStyle name="Currency" xfId="2" builtinId="4"/>
-    <cellStyle name="Comma[0]" xfId="3" builtinId="6"/>
-    <cellStyle name="Percent" xfId="4" builtinId="5"/>
-    <cellStyle name="Currency[0]" xfId="5" builtinId="7"/>
   </cellStyles>
+  <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
+  <c:lang val="en-CA"/>
   <c:roundedCorners val="0"/>
+  <c:style val="2"/>
   <c:chart>
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
-      <c:layout>
-        <c:manualLayout>
-          <c:xMode val="edge"/>
-          <c:yMode val="edge"/>
-          <c:x val="0.0206019871420222"/>
-          <c:y val="0.0367441860465116"/>
-          <c:w val="0.75905902980713"/>
-          <c:h val="0.925581395348837"/>
-        </c:manualLayout>
-      </c:layout>
+      <c:layout/>
       <c:lineChart>
         <c:grouping val="standard"/>
         <c:varyColors val="0"/>
@@ -179,6 +143,12 @@
           <c:tx>
             <c:strRef>
               <c:f>Sheet1!$B$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Bears</c:v>
+                </c:pt>
+              </c:strCache>
             </c:strRef>
           </c:tx>
           <c:spPr>
@@ -194,9 +164,9 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>Sheet1!$A$2:$A$13</c:f>
+              <c:f>Sheet1!$A$2:$A$6</c:f>
               <c:strCache>
-                <c:ptCount val="12"/>
+                <c:ptCount val="5"/>
                 <c:pt idx="0">
                   <c:v>Jan</c:v>
                 </c:pt>
@@ -211,36 +181,16 @@
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>May</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>Jun</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>July</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>Aug</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>Sep</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>Oct</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>Nov</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>Dec</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$B$2:$B$13</c:f>
+              <c:f>Sheet1!$B$2:$B$6</c:f>
               <c:numCache>
-                <c:ptCount val="12"/>
+                <c:formatCode>#,##0.00</c:formatCode>
+                <c:ptCount val="5"/>
                 <c:pt idx="0">
                   <c:v>8</c:v>
                 </c:pt>
@@ -255,27 +205,6 @@
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>137</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>1184</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>8</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>54</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>93</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>116</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>137</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>1184</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -288,6 +217,12 @@
           <c:tx>
             <c:strRef>
               <c:f>Sheet1!$C$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Dolphins</c:v>
+                </c:pt>
+              </c:strCache>
             </c:strRef>
           </c:tx>
           <c:spPr>
@@ -303,9 +238,9 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>Sheet1!$A$2:$A$13</c:f>
+              <c:f>Sheet1!$A$2:$A$6</c:f>
               <c:strCache>
-                <c:ptCount val="12"/>
+                <c:ptCount val="5"/>
                 <c:pt idx="0">
                   <c:v>Jan</c:v>
                 </c:pt>
@@ -320,36 +255,16 @@
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>May</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>Jun</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>July</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>Aug</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>Sep</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>Oct</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>Nov</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>Dec</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$C$2:$C$13</c:f>
+              <c:f>Sheet1!$C$2:$C$6</c:f>
               <c:numCache>
-                <c:ptCount val="12"/>
+                <c:formatCode>#,##0.00</c:formatCode>
+                <c:ptCount val="5"/>
                 <c:pt idx="0">
                   <c:v>150</c:v>
                 </c:pt>
@@ -364,136 +279,6 @@
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>6</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>150</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>77</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>32</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>11</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>6</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>1</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-        </c:ser>
-        <c:ser>
-          <c:idx val="2"/>
-          <c:order val="2"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Sheet1!$D$1</c:f>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="25400">
-              <a:solidFill>
-                <a:srgbClr val="9BBB59"/>
-              </a:solidFill>
-              <a:prstDash val="solid"/>
-            </a:ln>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:cat>
-            <c:strRef>
-              <c:f>Sheet1!$A$2:$A$13</c:f>
-              <c:strCache>
-                <c:ptCount val="12"/>
-                <c:pt idx="0">
-                  <c:v>Jan</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>Feb</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>Mar</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>Apr</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>May</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>Jun</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>July</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>Aug</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>Sep</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>Oct</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>Nov</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>Dec</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>Sheet1!$D$2:$D$13</c:f>
-              <c:numCache>
-                <c:ptCount val="12"/>
-                <c:pt idx="0">
-                  <c:v>80</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>64</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>100</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>76</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>93</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>72</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>80</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>64</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>100</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>76</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>93</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>72</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -510,11 +295,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="0"/>
-        <c:axId val="1"/>
+        <c:axId val="108847872"/>
+        <c:axId val="108849408"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="0"/>
+        <c:axId val="108847872"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -545,9 +330,10 @@
                 <a:cs typeface="宋体"/>
               </a:defRPr>
             </a:pPr>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1"/>
+        <c:crossAx val="108849408"/>
         <c:crosses val="autoZero"/>
         <c:auto val="0"/>
         <c:lblAlgn val="ctr"/>
@@ -557,393 +343,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="3175">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:prstDash val="solid"/>
-            </a:ln>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:majorTickMark val="out"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:ln w="3175">
-            <a:solidFill>
-              <a:srgbClr val="000000"/>
-            </a:solidFill>
-            <a:prstDash val="solid"/>
-          </a:ln>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="0" vert="horz"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" baseline="0">
-                <a:solidFill>
-                  <a:srgbClr val="000000"/>
-                </a:solidFill>
-                <a:latin typeface="宋体"/>
-                <a:ea typeface="宋体"/>
-                <a:cs typeface="宋体"/>
-              </a:defRPr>
-            </a:pPr>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="0"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="between"/>
-      </c:valAx>
-      <c:spPr>
-        <a:solidFill>
-          <a:srgbClr val="FFFFCC"/>
-        </a:solidFill>
-        <a:ln w="12700">
-          <a:solidFill>
-            <a:srgbClr val="808080"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-        </a:ln>
-      </c:spPr>
-    </c:plotArea>
-    <c:legend>
-      <c:legendPos val="r"/>
-      <c:layout>
-        <c:manualLayout>
-          <c:xMode val="edge"/>
-          <c:yMode val="edge"/>
-          <c:x val="0.796025715955582"/>
-          <c:y val="0.385581395348837"/>
-          <c:w val="0.203682057276447"/>
-          <c:h val="0.176744186046512"/>
-        </c:manualLayout>
-      </c:layout>
-      <c:legendEntry>
-        <c:idx val="0"/>
-        <c:txPr>
-          <a:bodyPr/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" baseline="0">
-                <a:solidFill>
-                  <a:srgbClr val="000000"/>
-                </a:solidFill>
-                <a:latin typeface="宋体"/>
-                <a:ea typeface="宋体"/>
-                <a:cs typeface="宋体"/>
-              </a:defRPr>
-            </a:pPr>
-          </a:p>
-        </c:txPr>
-      </c:legendEntry>
-      <c:legendEntry>
-        <c:idx val="1"/>
-        <c:txPr>
-          <a:bodyPr/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" baseline="0">
-                <a:solidFill>
-                  <a:srgbClr val="000000"/>
-                </a:solidFill>
-                <a:latin typeface="宋体"/>
-                <a:ea typeface="宋体"/>
-                <a:cs typeface="宋体"/>
-              </a:defRPr>
-            </a:pPr>
-          </a:p>
-        </c:txPr>
-      </c:legendEntry>
-      <c:legendEntry>
-        <c:idx val="2"/>
-        <c:txPr>
-          <a:bodyPr/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" baseline="0">
-                <a:solidFill>
-                  <a:srgbClr val="000000"/>
-                </a:solidFill>
-                <a:latin typeface="宋体"/>
-                <a:ea typeface="宋体"/>
-                <a:cs typeface="宋体"/>
-              </a:defRPr>
-            </a:pPr>
-          </a:p>
-        </c:txPr>
-      </c:legendEntry>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" baseline="0">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:latin typeface="宋体"/>
-              <a:ea typeface="宋体"/>
-              <a:cs typeface="宋体"/>
-            </a:defRPr>
-          </a:pPr>
-        </a:p>
-      </c:txPr>
-    </c:legend>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-    <c:showDLblsOverMax val="0"/>
-  </c:chart>
-  <c:spPr>
-    <a:noFill/>
-    <a:ln w="3175">
-      <a:solidFill>
-        <a:srgbClr val="000000"/>
-      </a:solidFill>
-      <a:prstDash val="solid"/>
-    </a:ln>
-  </c:spPr>
-  <c:txPr>
-    <a:bodyPr/>
-    <a:lstStyle/>
-    <a:p>
-      <a:pPr>
-        <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" baseline="0">
-          <a:solidFill>
-            <a:srgbClr val="000000"/>
-          </a:solidFill>
-          <a:latin typeface="宋体"/>
-          <a:ea typeface="宋体"/>
-          <a:cs typeface="宋体"/>
-        </a:defRPr>
-      </a:pPr>
-    </a:p>
-  </c:txPr>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <c:date1904 val="0"/>
-  <c:roundedCorners val="0"/>
-  <c:chart>
-    <c:autoTitleDeleted val="0"/>
-    <c:plotArea>
-      <c:layout/>
-      <c:lineChart>
-        <c:grouping val="standard"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Sheet1!$B$1</c:f>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="25400">
-              <a:solidFill>
-                <a:srgbClr val="4F81BD"/>
-              </a:solidFill>
-              <a:prstDash val="solid"/>
-            </a:ln>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:cat>
-            <c:strRef>
-              <c:f>Sheet1!$A$2:$A$6</c:f>
-              <c:strCache>
-                <c:ptCount val="5"/>
-                <c:pt idx="0">
-                  <c:v>Jan</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>Feb</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>Mar</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>Apr</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>May</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>Sheet1!$B$2:$B$6</c:f>
-              <c:numCache>
-                <c:ptCount val="5"/>
-                <c:pt idx="0">
-                  <c:v>8</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>54</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>93</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>116</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>137</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-        </c:ser>
-        <c:ser>
-          <c:idx val="1"/>
-          <c:order val="1"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Sheet1!$C$1</c:f>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="25400">
-              <a:solidFill>
-                <a:srgbClr val="C0504D"/>
-              </a:solidFill>
-              <a:prstDash val="solid"/>
-            </a:ln>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:cat>
-            <c:strRef>
-              <c:f>Sheet1!$A$2:$A$6</c:f>
-              <c:strCache>
-                <c:ptCount val="5"/>
-                <c:pt idx="0">
-                  <c:v>Jan</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>Feb</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>Mar</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>Apr</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>May</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>Sheet1!$C$2:$C$6</c:f>
-              <c:numCache>
-                <c:ptCount val="5"/>
-                <c:pt idx="0">
-                  <c:v>150</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>77</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>32</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>11</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>6</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-        </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:marker val="1"/>
-        <c:smooth val="0"/>
-        <c:axId val="0"/>
-        <c:axId val="1"/>
-      </c:lineChart>
-      <c:catAx>
-        <c:axId val="0"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:majorTickMark val="out"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:ln w="3175">
-            <a:solidFill>
-              <a:srgbClr val="000000"/>
-            </a:solidFill>
-            <a:prstDash val="solid"/>
-          </a:ln>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="0" vert="horz"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" baseline="0">
-                <a:solidFill>
-                  <a:srgbClr val="000000"/>
-                </a:solidFill>
-                <a:latin typeface="宋体"/>
-                <a:ea typeface="宋体"/>
-                <a:cs typeface="宋体"/>
-              </a:defRPr>
-            </a:pPr>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="1"/>
-        <c:crosses val="autoZero"/>
-        <c:auto val="0"/>
-        <c:lblAlgn val="ctr"/>
-        <c:lblOffset val="100"/>
-        <c:tickLblSkip val="1"/>
-        <c:tickMarkSkip val="1"/>
-        <c:noMultiLvlLbl val="0"/>
-      </c:catAx>
-      <c:valAx>
-        <c:axId val="1"/>
+        <c:axId val="108849408"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -985,9 +385,10 @@
                 <a:cs typeface="宋体"/>
               </a:defRPr>
             </a:pPr>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="0"/>
+        <c:crossAx val="108847872"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1005,7 +406,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:legendEntry>
         <c:idx val="0"/>
         <c:txPr>
@@ -1022,6 +422,7 @@
                 <a:cs typeface="宋体"/>
               </a:defRPr>
             </a:pPr>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
       </c:legendEntry>
@@ -1041,9 +442,11 @@
                 <a:cs typeface="宋体"/>
               </a:defRPr>
             </a:pPr>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
       </c:legendEntry>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1065,6 +468,7 @@
               <a:cs typeface="宋体"/>
             </a:defRPr>
           </a:pPr>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -1097,15 +501,336 @@
           <a:cs typeface="宋体"/>
         </a:defRPr>
       </a:pPr>
+      <a:endParaRPr lang="en-US"/>
     </a:p>
   </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-CA"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$B$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Bears</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$A$2:$A$7</c:f>
+              <c:strCache>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>Jan</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Feb</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Mar</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Apr</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>May</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Jun</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$B$2:$B$7</c:f>
+              <c:numCache>
+                <c:formatCode>#,##0.00</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>54</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>93</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>116</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>137</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1184</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$C$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Dolphins</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$A$2:$A$7</c:f>
+              <c:strCache>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>Jan</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Feb</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Mar</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Apr</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>May</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Jun</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$C$2:$C$7</c:f>
+              <c:numCache>
+                <c:formatCode>#,##0.00</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>150</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>77</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$D$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Whales</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$A$2:$A$7</c:f>
+              <c:strCache>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>Jan</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Feb</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Mar</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Apr</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>May</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Jun</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$D$2:$D$7</c:f>
+              <c:numCache>
+                <c:formatCode>#,##0.00</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>76</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>93</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>72</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="38139392"/>
+        <c:axId val="38140928"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="38139392"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="38140928"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="38140928"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:numFmt formatCode="#,##0.00" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="38139392"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:solidFill>
+          <a:schemeClr val="accent3">
+            <a:lumMod val="40000"/>
+            <a:lumOff val="60000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+        </a:ln>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
 </c:chartSpace>
 </file>
 
 <file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
+  <c:lang val="en-CA"/>
   <c:roundedCorners val="0"/>
+  <c:style val="2"/>
   <c:chart>
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
@@ -1119,6 +844,12 @@
           <c:tx>
             <c:strRef>
               <c:f>Sheet2!$A$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Jan</c:v>
+                </c:pt>
+              </c:strCache>
             </c:strRef>
           </c:tx>
           <c:spPr>
@@ -1153,6 +884,7 @@
             <c:numRef>
               <c:f>Sheet2!$B$2:$D$2</c:f>
               <c:numCache>
+                <c:formatCode>#,##0.00</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
                   <c:v>8</c:v>
@@ -1174,6 +906,12 @@
           <c:tx>
             <c:strRef>
               <c:f>Sheet2!$A$3</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Feb</c:v>
+                </c:pt>
+              </c:strCache>
             </c:strRef>
           </c:tx>
           <c:spPr>
@@ -1208,6 +946,7 @@
             <c:numRef>
               <c:f>Sheet2!$B$3:$D$3</c:f>
               <c:numCache>
+                <c:formatCode>#,##0.00</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
                   <c:v>54</c:v>
@@ -1229,6 +968,12 @@
           <c:tx>
             <c:strRef>
               <c:f>Sheet2!$A$4</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Mar</c:v>
+                </c:pt>
+              </c:strCache>
             </c:strRef>
           </c:tx>
           <c:spPr>
@@ -1263,6 +1008,7 @@
             <c:numRef>
               <c:f>Sheet2!$B$4:$D$4</c:f>
               <c:numCache>
+                <c:formatCode>#,##0.00</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
                   <c:v>93</c:v>
@@ -1284,6 +1030,12 @@
           <c:tx>
             <c:strRef>
               <c:f>Sheet2!$A$5</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Apr</c:v>
+                </c:pt>
+              </c:strCache>
             </c:strRef>
           </c:tx>
           <c:spPr>
@@ -1318,6 +1070,7 @@
             <c:numRef>
               <c:f>Sheet2!$B$5:$D$5</c:f>
               <c:numCache>
+                <c:formatCode>#,##0.00</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
                   <c:v>116</c:v>
@@ -1339,6 +1092,12 @@
           <c:tx>
             <c:strRef>
               <c:f>Sheet2!$A$6</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>May</c:v>
+                </c:pt>
+              </c:strCache>
             </c:strRef>
           </c:tx>
           <c:spPr>
@@ -1373,6 +1132,7 @@
             <c:numRef>
               <c:f>Sheet2!$B$6:$D$6</c:f>
               <c:numCache>
+                <c:formatCode>#,##0.00</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
                   <c:v>137</c:v>
@@ -1394,6 +1154,12 @@
           <c:tx>
             <c:strRef>
               <c:f>Sheet2!$A$7</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Jun</c:v>
+                </c:pt>
+              </c:strCache>
             </c:strRef>
           </c:tx>
           <c:spPr>
@@ -1428,6 +1194,7 @@
             <c:numRef>
               <c:f>Sheet2!$B$7:$D$7</c:f>
               <c:numCache>
+                <c:formatCode>#,##0.00</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
                   <c:v>1184</c:v>
@@ -1449,6 +1216,12 @@
           <c:tx>
             <c:strRef>
               <c:f>Sheet2!$A$8</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>July</c:v>
+                </c:pt>
+              </c:strCache>
             </c:strRef>
           </c:tx>
           <c:spPr>
@@ -1483,6 +1256,7 @@
             <c:numRef>
               <c:f>Sheet2!$B$8:$D$8</c:f>
               <c:numCache>
+                <c:formatCode>#,##0.00</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
                   <c:v>8</c:v>
@@ -1504,6 +1278,12 @@
           <c:tx>
             <c:strRef>
               <c:f>Sheet2!$A$9</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Aug</c:v>
+                </c:pt>
+              </c:strCache>
             </c:strRef>
           </c:tx>
           <c:spPr>
@@ -1538,6 +1318,7 @@
             <c:numRef>
               <c:f>Sheet2!$B$9:$D$9</c:f>
               <c:numCache>
+                <c:formatCode>#,##0.00</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
                   <c:v>54</c:v>
@@ -1563,11 +1344,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="0"/>
-        <c:axId val="1"/>
+        <c:axId val="110703360"/>
+        <c:axId val="110704896"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="0"/>
+        <c:axId val="110703360"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1598,9 +1379,10 @@
                 <a:cs typeface="宋体"/>
               </a:defRPr>
             </a:pPr>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1"/>
+        <c:crossAx val="110704896"/>
         <c:crosses val="autoZero"/>
         <c:auto val="0"/>
         <c:lblAlgn val="ctr"/>
@@ -1610,7 +1392,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1"/>
+        <c:axId val="110704896"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1652,9 +1434,10 @@
                 <a:cs typeface="宋体"/>
               </a:defRPr>
             </a:pPr>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="0"/>
+        <c:crossAx val="110703360"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1669,7 +1452,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:legendEntry>
         <c:idx val="0"/>
         <c:txPr>
@@ -1686,6 +1468,7 @@
                 <a:cs typeface="宋体"/>
               </a:defRPr>
             </a:pPr>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
       </c:legendEntry>
@@ -1705,6 +1488,7 @@
                 <a:cs typeface="宋体"/>
               </a:defRPr>
             </a:pPr>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
       </c:legendEntry>
@@ -1724,6 +1508,7 @@
                 <a:cs typeface="宋体"/>
               </a:defRPr>
             </a:pPr>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
       </c:legendEntry>
@@ -1743,6 +1528,7 @@
                 <a:cs typeface="宋体"/>
               </a:defRPr>
             </a:pPr>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
       </c:legendEntry>
@@ -1762,6 +1548,7 @@
                 <a:cs typeface="宋体"/>
               </a:defRPr>
             </a:pPr>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
       </c:legendEntry>
@@ -1781,6 +1568,7 @@
                 <a:cs typeface="宋体"/>
               </a:defRPr>
             </a:pPr>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
       </c:legendEntry>
@@ -1800,6 +1588,7 @@
                 <a:cs typeface="宋体"/>
               </a:defRPr>
             </a:pPr>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
       </c:legendEntry>
@@ -1819,6 +1608,7 @@
                 <a:cs typeface="宋体"/>
               </a:defRPr>
             </a:pPr>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
       </c:legendEntry>
@@ -1843,6 +1633,7 @@
               <a:cs typeface="宋体"/>
             </a:defRPr>
           </a:pPr>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -1875,68 +1666,74 @@
           <a:cs typeface="宋体"/>
         </a:defRPr>
       </a:pPr>
+      <a:endParaRPr lang="en-US"/>
     </a:p>
   </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
 </c:chartSpace>
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
-  <xdr:twoCellAnchor editAs="twoCell">
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>70485</xdr:colOff>
-      <xdr:row>13</xdr:row>
-      <xdr:rowOff>34290</xdr:rowOff>
+      <xdr:colOff>95250</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>1114425</xdr:colOff>
-      <xdr:row>28</xdr:row>
-      <xdr:rowOff>34290</xdr:rowOff>
+      <xdr:colOff>480060</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
     </xdr:to>
-    <xdr:graphicFrame>
+    <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2050" name="Chart 3"/>
+        <xdr:cNvPr id="2048" name="Chart 1"/>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="70485" y="2487930"/>
-        <a:ext cx="4473575" cy="2857500"/>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="rId1"/>
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="twoCell">
+  <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>95250</xdr:colOff>
-      <xdr:row>31</xdr:row>
-      <xdr:rowOff>95250</xdr:rowOff>
+      <xdr:colOff>102870</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>64770</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>480060</xdr:colOff>
-      <xdr:row>44</xdr:row>
-      <xdr:rowOff>152400</xdr:rowOff>
+      <xdr:colOff>1146810</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>64770</xdr:rowOff>
     </xdr:to>
-    <xdr:graphicFrame>
+    <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2048" name="Chart 1"/>
+        <xdr:cNvPr id="2" name="Chart 1"/>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="95250" y="5977890"/>
-        <a:ext cx="3814445" cy="2533650"/>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="rId2"/>
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -1946,8 +1743,8 @@
 </file>
 
 <file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
-  <xdr:twoCellAnchor editAs="twoCell">
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
@@ -1960,18 +1757,18 @@
       <xdr:row>23</xdr:row>
       <xdr:rowOff>129540</xdr:rowOff>
     </xdr:to>
-    <xdr:graphicFrame>
+    <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="4097" name="Chart 2"/>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="0" y="1764030"/>
-        <a:ext cx="4729480" cy="2747010"/>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="rId1"/>
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -2275,6 +2072,7 @@
           </a:gdLst>
           <a:ahLst/>
           <a:cxnLst/>
+          <a:rect l="0" t="0" r="0" b="0"/>
           <a:pathLst>
             <a:path w="21600" h="21600"/>
           </a:pathLst>
@@ -2307,23 +2105,22 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr/>
-  <dimension ref="A1:I46"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:I40"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A14" sqref="A14:D29"/>
+      <selection activeCell="H24" sqref="H24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
   <cols>
     <col min="1" max="1" width="15" customWidth="1"/>
-    <col min="2" max="2" width="17.3333333333333" customWidth="1"/>
-    <col min="3" max="3" width="19.1047619047619" customWidth="1"/>
-    <col min="4" max="4" width="31.6666666666667" customWidth="1"/>
+    <col min="2" max="2" width="17.33203125" customWidth="1"/>
+    <col min="3" max="3" width="19.109375" customWidth="1"/>
+    <col min="4" max="4" width="31.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:9">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2337,7 +2134,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4">
+    <row r="2" spans="1:9">
       <c r="A2" t="s">
         <v>4</v>
       </c>
@@ -2351,7 +2148,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="3" spans="1:4">
+    <row r="3" spans="1:9">
       <c r="A3" t="s">
         <v>5</v>
       </c>
@@ -2365,7 +2162,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="4" spans="1:4">
+    <row r="4" spans="1:9">
       <c r="A4" t="s">
         <v>6</v>
       </c>
@@ -2379,7 +2176,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="5" spans="1:4">
+    <row r="5" spans="1:9">
       <c r="A5" t="s">
         <v>7</v>
       </c>
@@ -2393,7 +2190,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="6" spans="1:4">
+    <row r="6" spans="1:9">
       <c r="A6" t="s">
         <v>8</v>
       </c>
@@ -2407,7 +2204,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="7" ht="13.2" customHeight="1" spans="1:4">
+    <row r="7" spans="1:9" ht="13.2" customHeight="1">
       <c r="A7" t="s">
         <v>9</v>
       </c>
@@ -2421,331 +2218,241 @@
         <v>72</v>
       </c>
     </row>
-    <row r="8" spans="1:4">
-      <c r="A8" t="s">
-        <v>10</v>
-      </c>
-      <c r="B8" s="2">
-        <v>8</v>
-      </c>
-      <c r="C8" s="2">
-        <v>150</v>
-      </c>
-      <c r="D8" s="2">
-        <v>80</v>
-      </c>
+    <row r="8" spans="1:9">
+      <c r="A8" s="4"/>
+      <c r="B8" s="4"/>
+      <c r="C8" s="4"/>
+      <c r="D8" s="4"/>
+      <c r="I8" s="3"/>
     </row>
     <row r="9" spans="1:9">
-      <c r="A9" t="s">
-        <v>11</v>
-      </c>
-      <c r="B9" s="2">
-        <v>54</v>
-      </c>
-      <c r="C9" s="2">
-        <v>77</v>
-      </c>
-      <c r="D9" s="2">
-        <v>64</v>
-      </c>
+      <c r="A9" s="4"/>
+      <c r="B9" s="4"/>
+      <c r="C9" s="4"/>
+      <c r="D9" s="4"/>
       <c r="I9" s="3"/>
     </row>
     <row r="10" spans="1:9">
-      <c r="A10" t="s">
-        <v>12</v>
-      </c>
-      <c r="B10" s="2">
-        <v>93</v>
-      </c>
-      <c r="C10" s="2">
-        <v>32</v>
-      </c>
-      <c r="D10" s="2">
-        <v>100</v>
-      </c>
+      <c r="A10" s="4"/>
+      <c r="B10" s="4"/>
+      <c r="C10" s="4"/>
+      <c r="D10" s="4"/>
       <c r="I10" s="3"/>
     </row>
     <row r="11" spans="1:9">
-      <c r="A11" t="s">
-        <v>13</v>
-      </c>
-      <c r="B11" s="2">
-        <v>116</v>
-      </c>
-      <c r="C11" s="2">
-        <v>11</v>
-      </c>
-      <c r="D11" s="2">
-        <v>76</v>
-      </c>
+      <c r="A11" s="4"/>
+      <c r="B11" s="4"/>
+      <c r="C11" s="4"/>
+      <c r="D11" s="4"/>
       <c r="I11" s="3"/>
     </row>
     <row r="12" spans="1:9">
-      <c r="A12" t="s">
-        <v>14</v>
-      </c>
-      <c r="B12" s="2">
-        <v>137</v>
-      </c>
-      <c r="C12" s="2">
-        <v>6</v>
-      </c>
-      <c r="D12" s="2">
-        <v>93</v>
-      </c>
+      <c r="A12" s="4"/>
+      <c r="B12" s="4"/>
+      <c r="C12" s="4"/>
+      <c r="D12" s="4"/>
       <c r="I12" s="3"/>
     </row>
     <row r="13" spans="1:9">
-      <c r="A13" t="s">
-        <v>15</v>
-      </c>
-      <c r="B13" s="2">
-        <v>1184</v>
-      </c>
-      <c r="C13" s="2">
-        <v>1</v>
-      </c>
-      <c r="D13" s="2">
-        <v>72</v>
-      </c>
+      <c r="A13" s="4"/>
+      <c r="B13" s="4"/>
+      <c r="C13" s="4"/>
+      <c r="D13" s="4"/>
       <c r="I13" s="3"/>
     </row>
     <row r="14" spans="1:9">
-      <c r="A14" s="3"/>
-      <c r="B14" s="3"/>
-      <c r="C14" s="3"/>
-      <c r="D14" s="3"/>
+      <c r="A14" s="4"/>
+      <c r="B14" s="4"/>
+      <c r="C14" s="4"/>
+      <c r="D14" s="4"/>
       <c r="I14" s="3"/>
     </row>
     <row r="15" spans="1:9">
-      <c r="A15" s="3"/>
-      <c r="B15" s="3"/>
-      <c r="C15" s="3"/>
-      <c r="D15" s="3"/>
+      <c r="A15" s="4"/>
+      <c r="B15" s="4"/>
+      <c r="C15" s="4"/>
+      <c r="D15" s="4"/>
       <c r="I15" s="3"/>
     </row>
     <row r="16" spans="1:9">
-      <c r="A16" s="3"/>
-      <c r="B16" s="3"/>
-      <c r="C16" s="3"/>
-      <c r="D16" s="3"/>
+      <c r="A16" s="4"/>
+      <c r="B16" s="4"/>
+      <c r="C16" s="4"/>
+      <c r="D16" s="4"/>
       <c r="I16" s="3"/>
     </row>
     <row r="17" spans="1:9">
-      <c r="A17" s="3"/>
-      <c r="B17" s="3"/>
-      <c r="C17" s="3"/>
-      <c r="D17" s="3"/>
+      <c r="A17" s="4"/>
+      <c r="B17" s="4"/>
+      <c r="C17" s="4"/>
+      <c r="D17" s="4"/>
       <c r="I17" s="3"/>
     </row>
     <row r="18" spans="1:9">
-      <c r="A18" s="3"/>
-      <c r="B18" s="3"/>
-      <c r="C18" s="3"/>
-      <c r="D18" s="3"/>
+      <c r="A18" s="4"/>
+      <c r="B18" s="4"/>
+      <c r="C18" s="4"/>
+      <c r="D18" s="4"/>
+      <c r="E18" s="3"/>
+      <c r="F18" s="3"/>
+      <c r="G18" s="3"/>
+      <c r="H18" s="3"/>
       <c r="I18" s="3"/>
     </row>
     <row r="19" spans="1:9">
-      <c r="A19" s="3"/>
-      <c r="B19" s="3"/>
-      <c r="C19" s="3"/>
-      <c r="D19" s="3"/>
+      <c r="A19" s="4"/>
+      <c r="B19" s="4"/>
+      <c r="C19" s="4"/>
+      <c r="D19" s="4"/>
+      <c r="E19" s="3"/>
+      <c r="F19" s="3"/>
+      <c r="G19" s="3"/>
+      <c r="H19" s="3"/>
       <c r="I19" s="3"/>
     </row>
     <row r="20" spans="1:9">
-      <c r="A20" s="3"/>
-      <c r="B20" s="3"/>
-      <c r="C20" s="3"/>
-      <c r="D20" s="3"/>
-      <c r="I20" s="3"/>
+      <c r="A20" s="4"/>
+      <c r="B20" s="4"/>
+      <c r="C20" s="4"/>
+      <c r="D20" s="4"/>
     </row>
     <row r="21" spans="1:9">
-      <c r="A21" s="3"/>
-      <c r="B21" s="3"/>
-      <c r="C21" s="3"/>
-      <c r="D21" s="3"/>
-      <c r="I21" s="3"/>
+      <c r="A21" s="4"/>
+      <c r="B21" s="4"/>
+      <c r="C21" s="4"/>
+      <c r="D21" s="4"/>
     </row>
     <row r="22" spans="1:9">
-      <c r="A22" s="3"/>
-      <c r="B22" s="3"/>
-      <c r="C22" s="3"/>
-      <c r="D22" s="3"/>
-      <c r="I22" s="3"/>
+      <c r="A22" s="4"/>
+      <c r="B22" s="4"/>
+      <c r="C22" s="4"/>
+      <c r="D22" s="4"/>
     </row>
     <row r="23" spans="1:9">
-      <c r="A23" s="3"/>
-      <c r="B23" s="3"/>
-      <c r="C23" s="3"/>
-      <c r="D23" s="3"/>
-      <c r="I23" s="3"/>
-    </row>
-    <row r="24" spans="1:9">
-      <c r="A24" s="3"/>
-      <c r="B24" s="3"/>
-      <c r="C24" s="3"/>
-      <c r="D24" s="3"/>
-      <c r="E24" s="3"/>
-      <c r="F24" s="3"/>
-      <c r="G24" s="3"/>
-      <c r="H24" s="3"/>
-      <c r="I24" s="3"/>
-    </row>
-    <row r="25" spans="1:9">
-      <c r="A25" s="3"/>
-      <c r="B25" s="3"/>
-      <c r="C25" s="3"/>
-      <c r="D25" s="3"/>
-      <c r="E25" s="3"/>
-      <c r="F25" s="3"/>
-      <c r="G25" s="3"/>
-      <c r="H25" s="3"/>
-      <c r="I25" s="3"/>
-    </row>
-    <row r="26" spans="1:4">
-      <c r="A26" s="3"/>
-      <c r="B26" s="3"/>
-      <c r="C26" s="3"/>
-      <c r="D26" s="3"/>
-    </row>
-    <row r="27" spans="1:4">
-      <c r="A27" s="3"/>
-      <c r="B27" s="3"/>
-      <c r="C27" s="3"/>
-      <c r="D27" s="3"/>
-    </row>
-    <row r="28" spans="1:4">
-      <c r="A28" s="3"/>
-      <c r="B28" s="3"/>
-      <c r="C28" s="3"/>
-      <c r="D28" s="3"/>
-    </row>
-    <row r="29" spans="1:4">
-      <c r="A29" s="3"/>
-      <c r="B29" s="3"/>
-      <c r="C29" s="3"/>
-      <c r="D29" s="3"/>
-    </row>
-    <row r="32" spans="1:4">
-      <c r="A32" s="4"/>
-      <c r="B32" s="4"/>
-      <c r="C32" s="4"/>
-      <c r="D32" s="4"/>
+      <c r="A23" s="4"/>
+      <c r="B23" s="4"/>
+      <c r="C23" s="4"/>
+      <c r="D23" s="4"/>
+    </row>
+    <row r="26" spans="1:9">
+      <c r="A26" s="5"/>
+      <c r="B26" s="5"/>
+      <c r="C26" s="5"/>
+      <c r="D26" s="5"/>
+    </row>
+    <row r="27" spans="1:9">
+      <c r="A27" s="5"/>
+      <c r="B27" s="5"/>
+      <c r="C27" s="5"/>
+      <c r="D27" s="5"/>
+    </row>
+    <row r="28" spans="1:9">
+      <c r="A28" s="5"/>
+      <c r="B28" s="5"/>
+      <c r="C28" s="5"/>
+      <c r="D28" s="5"/>
+    </row>
+    <row r="29" spans="1:9">
+      <c r="A29" s="5"/>
+      <c r="B29" s="5"/>
+      <c r="C29" s="5"/>
+      <c r="D29" s="5"/>
+    </row>
+    <row r="30" spans="1:9">
+      <c r="A30" s="5"/>
+      <c r="B30" s="5"/>
+      <c r="C30" s="5"/>
+      <c r="D30" s="5"/>
+    </row>
+    <row r="31" spans="1:9">
+      <c r="A31" s="5"/>
+      <c r="B31" s="5"/>
+      <c r="C31" s="5"/>
+      <c r="D31" s="5"/>
+    </row>
+    <row r="32" spans="1:9">
+      <c r="A32" s="5"/>
+      <c r="B32" s="5"/>
+      <c r="C32" s="5"/>
+      <c r="D32" s="5"/>
     </row>
     <row r="33" spans="1:4">
-      <c r="A33" s="4"/>
-      <c r="B33" s="4"/>
-      <c r="C33" s="4"/>
-      <c r="D33" s="4"/>
+      <c r="A33" s="5"/>
+      <c r="B33" s="5"/>
+      <c r="C33" s="5"/>
+      <c r="D33" s="5"/>
     </row>
     <row r="34" spans="1:4">
-      <c r="A34" s="4"/>
-      <c r="B34" s="4"/>
-      <c r="C34" s="4"/>
-      <c r="D34" s="4"/>
+      <c r="A34" s="5"/>
+      <c r="B34" s="5"/>
+      <c r="C34" s="5"/>
+      <c r="D34" s="5"/>
     </row>
     <row r="35" spans="1:4">
-      <c r="A35" s="4"/>
-      <c r="B35" s="4"/>
-      <c r="C35" s="4"/>
-      <c r="D35" s="4"/>
+      <c r="A35" s="5"/>
+      <c r="B35" s="5"/>
+      <c r="C35" s="5"/>
+      <c r="D35" s="5"/>
     </row>
     <row r="36" spans="1:4">
-      <c r="A36" s="4"/>
-      <c r="B36" s="4"/>
-      <c r="C36" s="4"/>
-      <c r="D36" s="4"/>
+      <c r="A36" s="5"/>
+      <c r="B36" s="5"/>
+      <c r="C36" s="5"/>
+      <c r="D36" s="5"/>
     </row>
     <row r="37" spans="1:4">
-      <c r="A37" s="4"/>
-      <c r="B37" s="4"/>
-      <c r="C37" s="4"/>
-      <c r="D37" s="4"/>
+      <c r="A37" s="5"/>
+      <c r="B37" s="5"/>
+      <c r="C37" s="5"/>
+      <c r="D37" s="5"/>
     </row>
     <row r="38" spans="1:4">
-      <c r="A38" s="4"/>
-      <c r="B38" s="4"/>
-      <c r="C38" s="4"/>
-      <c r="D38" s="4"/>
+      <c r="A38" s="5"/>
+      <c r="B38" s="5"/>
+      <c r="C38" s="5"/>
+      <c r="D38" s="5"/>
     </row>
     <row r="39" spans="1:4">
-      <c r="A39" s="4"/>
-      <c r="B39" s="4"/>
-      <c r="C39" s="4"/>
-      <c r="D39" s="4"/>
+      <c r="A39" s="5"/>
+      <c r="B39" s="5"/>
+      <c r="C39" s="5"/>
+      <c r="D39" s="5"/>
     </row>
     <row r="40" spans="1:4">
-      <c r="A40" s="4"/>
-      <c r="B40" s="4"/>
-      <c r="C40" s="4"/>
-      <c r="D40" s="4"/>
-    </row>
-    <row r="41" spans="1:4">
-      <c r="A41" s="4"/>
-      <c r="B41" s="4"/>
-      <c r="C41" s="4"/>
-      <c r="D41" s="4"/>
-    </row>
-    <row r="42" spans="1:4">
-      <c r="A42" s="4"/>
-      <c r="B42" s="4"/>
-      <c r="C42" s="4"/>
-      <c r="D42" s="4"/>
-    </row>
-    <row r="43" spans="1:4">
-      <c r="A43" s="4"/>
-      <c r="B43" s="4"/>
-      <c r="C43" s="4"/>
-      <c r="D43" s="4"/>
-    </row>
-    <row r="44" spans="1:4">
-      <c r="A44" s="4"/>
-      <c r="B44" s="4"/>
-      <c r="C44" s="4"/>
-      <c r="D44" s="4"/>
-    </row>
-    <row r="45" spans="1:4">
-      <c r="A45" s="4"/>
-      <c r="B45" s="4"/>
-      <c r="C45" s="4"/>
-      <c r="D45" s="4"/>
-    </row>
-    <row r="46" spans="1:4">
-      <c r="A46" s="4"/>
-      <c r="B46" s="4"/>
-      <c r="C46" s="4"/>
-      <c r="D46" s="4"/>
+      <c r="A40" s="5"/>
+      <c r="B40" s="5"/>
+      <c r="C40" s="5"/>
+      <c r="D40" s="5"/>
     </row>
   </sheetData>
   <mergeCells count="2">
-    <mergeCell ref="A14:D29"/>
-    <mergeCell ref="A32:D46"/>
+    <mergeCell ref="A8:D23"/>
+    <mergeCell ref="A26:D40"/>
   </mergeCells>
-  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="1" orientation="portrait"/>
+  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait"/>
   <headerFooter alignWithMargins="0"/>
   <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="I11" sqref="I11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelCol="7"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="19.7809523809524" customWidth="1"/>
+    <col min="1" max="1" width="19.77734375" customWidth="1"/>
     <col min="2" max="2" width="17" customWidth="1"/>
-    <col min="3" max="3" width="16.7809523809524" customWidth="1"/>
+    <col min="3" max="3" width="16.77734375" customWidth="1"/>
     <col min="4" max="4" width="23" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:8">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2759,7 +2466,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4">
+    <row r="2" spans="1:8">
       <c r="A2" t="s">
         <v>4</v>
       </c>
@@ -2773,7 +2480,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="3" spans="1:4">
+    <row r="3" spans="1:8">
       <c r="A3" t="s">
         <v>5</v>
       </c>
@@ -2787,7 +2494,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="4" spans="1:4">
+    <row r="4" spans="1:8">
       <c r="A4" t="s">
         <v>6</v>
       </c>
@@ -2801,7 +2508,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="5" spans="1:4">
+    <row r="5" spans="1:8">
       <c r="A5" t="s">
         <v>7</v>
       </c>
@@ -2815,7 +2522,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="6" spans="1:4">
+    <row r="6" spans="1:8">
       <c r="A6" t="s">
         <v>8</v>
       </c>
@@ -2829,7 +2536,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="7" spans="1:4">
+    <row r="7" spans="1:8">
       <c r="A7" t="s">
         <v>9</v>
       </c>
@@ -2843,7 +2550,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="8" spans="1:4">
+    <row r="8" spans="1:8">
       <c r="A8" t="s">
         <v>10</v>
       </c>
@@ -2857,7 +2564,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="9" spans="1:4">
+    <row r="9" spans="1:8">
       <c r="A9" t="s">
         <v>11</v>
       </c>
@@ -2872,170 +2579,170 @@
       </c>
     </row>
     <row r="10" spans="1:8">
-      <c r="A10" s="3"/>
-      <c r="B10" s="3"/>
-      <c r="C10" s="3"/>
-      <c r="D10" s="3"/>
-      <c r="E10" s="3"/>
-      <c r="F10" s="3"/>
-      <c r="G10" s="3"/>
-      <c r="H10" s="3"/>
+      <c r="A10" s="4"/>
+      <c r="B10" s="4"/>
+      <c r="C10" s="4"/>
+      <c r="D10" s="4"/>
+      <c r="E10" s="4"/>
+      <c r="F10" s="4"/>
+      <c r="G10" s="4"/>
+      <c r="H10" s="4"/>
     </row>
     <row r="11" spans="1:8">
-      <c r="A11" s="3"/>
-      <c r="B11" s="3"/>
-      <c r="C11" s="3"/>
-      <c r="D11" s="3"/>
-      <c r="E11" s="3"/>
-      <c r="F11" s="3"/>
-      <c r="G11" s="3"/>
-      <c r="H11" s="3"/>
+      <c r="A11" s="4"/>
+      <c r="B11" s="4"/>
+      <c r="C11" s="4"/>
+      <c r="D11" s="4"/>
+      <c r="E11" s="4"/>
+      <c r="F11" s="4"/>
+      <c r="G11" s="4"/>
+      <c r="H11" s="4"/>
     </row>
     <row r="12" spans="1:8">
-      <c r="A12" s="3"/>
-      <c r="B12" s="3"/>
-      <c r="C12" s="3"/>
-      <c r="D12" s="3"/>
-      <c r="E12" s="3"/>
-      <c r="F12" s="3"/>
-      <c r="G12" s="3"/>
-      <c r="H12" s="3"/>
+      <c r="A12" s="4"/>
+      <c r="B12" s="4"/>
+      <c r="C12" s="4"/>
+      <c r="D12" s="4"/>
+      <c r="E12" s="4"/>
+      <c r="F12" s="4"/>
+      <c r="G12" s="4"/>
+      <c r="H12" s="4"/>
     </row>
     <row r="13" spans="1:8">
-      <c r="A13" s="3"/>
-      <c r="B13" s="3"/>
-      <c r="C13" s="3"/>
-      <c r="D13" s="3"/>
-      <c r="E13" s="3"/>
-      <c r="F13" s="3"/>
-      <c r="G13" s="3"/>
-      <c r="H13" s="3"/>
+      <c r="A13" s="4"/>
+      <c r="B13" s="4"/>
+      <c r="C13" s="4"/>
+      <c r="D13" s="4"/>
+      <c r="E13" s="4"/>
+      <c r="F13" s="4"/>
+      <c r="G13" s="4"/>
+      <c r="H13" s="4"/>
     </row>
     <row r="14" spans="1:8">
-      <c r="A14" s="3"/>
-      <c r="B14" s="3"/>
-      <c r="C14" s="3"/>
-      <c r="D14" s="3"/>
-      <c r="E14" s="3"/>
-      <c r="F14" s="3"/>
-      <c r="G14" s="3"/>
-      <c r="H14" s="3"/>
+      <c r="A14" s="4"/>
+      <c r="B14" s="4"/>
+      <c r="C14" s="4"/>
+      <c r="D14" s="4"/>
+      <c r="E14" s="4"/>
+      <c r="F14" s="4"/>
+      <c r="G14" s="4"/>
+      <c r="H14" s="4"/>
     </row>
     <row r="15" spans="1:8">
-      <c r="A15" s="3"/>
-      <c r="B15" s="3"/>
-      <c r="C15" s="3"/>
-      <c r="D15" s="3"/>
-      <c r="E15" s="3"/>
-      <c r="F15" s="3"/>
-      <c r="G15" s="3"/>
-      <c r="H15" s="3"/>
+      <c r="A15" s="4"/>
+      <c r="B15" s="4"/>
+      <c r="C15" s="4"/>
+      <c r="D15" s="4"/>
+      <c r="E15" s="4"/>
+      <c r="F15" s="4"/>
+      <c r="G15" s="4"/>
+      <c r="H15" s="4"/>
     </row>
     <row r="16" spans="1:8">
-      <c r="A16" s="3"/>
-      <c r="B16" s="3"/>
-      <c r="C16" s="3"/>
-      <c r="D16" s="3"/>
-      <c r="E16" s="3"/>
-      <c r="F16" s="3"/>
-      <c r="G16" s="3"/>
-      <c r="H16" s="3"/>
+      <c r="A16" s="4"/>
+      <c r="B16" s="4"/>
+      <c r="C16" s="4"/>
+      <c r="D16" s="4"/>
+      <c r="E16" s="4"/>
+      <c r="F16" s="4"/>
+      <c r="G16" s="4"/>
+      <c r="H16" s="4"/>
     </row>
     <row r="17" spans="1:8">
-      <c r="A17" s="3"/>
-      <c r="B17" s="3"/>
-      <c r="C17" s="3"/>
-      <c r="D17" s="3"/>
-      <c r="E17" s="3"/>
-      <c r="F17" s="3"/>
-      <c r="G17" s="3"/>
-      <c r="H17" s="3"/>
+      <c r="A17" s="4"/>
+      <c r="B17" s="4"/>
+      <c r="C17" s="4"/>
+      <c r="D17" s="4"/>
+      <c r="E17" s="4"/>
+      <c r="F17" s="4"/>
+      <c r="G17" s="4"/>
+      <c r="H17" s="4"/>
     </row>
     <row r="18" spans="1:8">
-      <c r="A18" s="3"/>
-      <c r="B18" s="3"/>
-      <c r="C18" s="3"/>
-      <c r="D18" s="3"/>
-      <c r="E18" s="3"/>
-      <c r="F18" s="3"/>
-      <c r="G18" s="3"/>
-      <c r="H18" s="3"/>
+      <c r="A18" s="4"/>
+      <c r="B18" s="4"/>
+      <c r="C18" s="4"/>
+      <c r="D18" s="4"/>
+      <c r="E18" s="4"/>
+      <c r="F18" s="4"/>
+      <c r="G18" s="4"/>
+      <c r="H18" s="4"/>
     </row>
     <row r="19" spans="1:8">
-      <c r="A19" s="3"/>
-      <c r="B19" s="3"/>
-      <c r="C19" s="3"/>
-      <c r="D19" s="3"/>
-      <c r="E19" s="3"/>
-      <c r="F19" s="3"/>
-      <c r="G19" s="3"/>
-      <c r="H19" s="3"/>
+      <c r="A19" s="4"/>
+      <c r="B19" s="4"/>
+      <c r="C19" s="4"/>
+      <c r="D19" s="4"/>
+      <c r="E19" s="4"/>
+      <c r="F19" s="4"/>
+      <c r="G19" s="4"/>
+      <c r="H19" s="4"/>
     </row>
     <row r="20" spans="1:8">
-      <c r="A20" s="3"/>
-      <c r="B20" s="3"/>
-      <c r="C20" s="3"/>
-      <c r="D20" s="3"/>
-      <c r="E20" s="3"/>
-      <c r="F20" s="3"/>
-      <c r="G20" s="3"/>
-      <c r="H20" s="3"/>
+      <c r="A20" s="4"/>
+      <c r="B20" s="4"/>
+      <c r="C20" s="4"/>
+      <c r="D20" s="4"/>
+      <c r="E20" s="4"/>
+      <c r="F20" s="4"/>
+      <c r="G20" s="4"/>
+      <c r="H20" s="4"/>
     </row>
     <row r="21" spans="1:8">
-      <c r="A21" s="3"/>
-      <c r="B21" s="3"/>
-      <c r="C21" s="3"/>
-      <c r="D21" s="3"/>
-      <c r="E21" s="3"/>
-      <c r="F21" s="3"/>
-      <c r="G21" s="3"/>
-      <c r="H21" s="3"/>
+      <c r="A21" s="4"/>
+      <c r="B21" s="4"/>
+      <c r="C21" s="4"/>
+      <c r="D21" s="4"/>
+      <c r="E21" s="4"/>
+      <c r="F21" s="4"/>
+      <c r="G21" s="4"/>
+      <c r="H21" s="4"/>
     </row>
     <row r="22" spans="1:8">
-      <c r="A22" s="3"/>
-      <c r="B22" s="3"/>
-      <c r="C22" s="3"/>
-      <c r="D22" s="3"/>
-      <c r="E22" s="3"/>
-      <c r="F22" s="3"/>
-      <c r="G22" s="3"/>
-      <c r="H22" s="3"/>
+      <c r="A22" s="4"/>
+      <c r="B22" s="4"/>
+      <c r="C22" s="4"/>
+      <c r="D22" s="4"/>
+      <c r="E22" s="4"/>
+      <c r="F22" s="4"/>
+      <c r="G22" s="4"/>
+      <c r="H22" s="4"/>
     </row>
     <row r="23" spans="1:8">
-      <c r="A23" s="3"/>
-      <c r="B23" s="3"/>
-      <c r="C23" s="3"/>
-      <c r="D23" s="3"/>
-      <c r="E23" s="3"/>
-      <c r="F23" s="3"/>
-      <c r="G23" s="3"/>
-      <c r="H23" s="3"/>
+      <c r="A23" s="4"/>
+      <c r="B23" s="4"/>
+      <c r="C23" s="4"/>
+      <c r="D23" s="4"/>
+      <c r="E23" s="4"/>
+      <c r="F23" s="4"/>
+      <c r="G23" s="4"/>
+      <c r="H23" s="4"/>
     </row>
     <row r="24" spans="1:8">
-      <c r="A24" s="3"/>
-      <c r="B24" s="3"/>
-      <c r="C24" s="3"/>
-      <c r="D24" s="3"/>
-      <c r="E24" s="3"/>
-      <c r="F24" s="3"/>
-      <c r="G24" s="3"/>
-      <c r="H24" s="3"/>
+      <c r="A24" s="4"/>
+      <c r="B24" s="4"/>
+      <c r="C24" s="4"/>
+      <c r="D24" s="4"/>
+      <c r="E24" s="4"/>
+      <c r="F24" s="4"/>
+      <c r="G24" s="4"/>
+      <c r="H24" s="4"/>
     </row>
     <row r="25" spans="1:8">
-      <c r="A25" s="3"/>
-      <c r="B25" s="3"/>
-      <c r="C25" s="3"/>
-      <c r="D25" s="3"/>
-      <c r="E25" s="3"/>
-      <c r="F25" s="3"/>
-      <c r="G25" s="3"/>
-      <c r="H25" s="3"/>
+      <c r="A25" s="4"/>
+      <c r="B25" s="4"/>
+      <c r="C25" s="4"/>
+      <c r="D25" s="4"/>
+      <c r="E25" s="4"/>
+      <c r="F25" s="4"/>
+      <c r="G25" s="4"/>
+      <c r="H25" s="4"/>
     </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="A10:H25"/>
   </mergeCells>
-  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter alignWithMargins="0"/>
   <drawing r:id="rId1"/>
@@ -3043,17 +2750,14 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
   <sheetData/>
-  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter alignWithMargins="0"/>
 </worksheet>

--- a/src/main/resources/websheet/linecharts1.xlsx
+++ b/src/main/resources/websheet/linecharts1.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28716" windowHeight="13080"/>
+    <workbookView windowWidth="19500" windowHeight="10350" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -15,8 +15,53 @@
 </workbook>
 </file>
 
+<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <authors>
+    <author>JASON</author>
+  </authors>
+  <commentList>
+    <comment ref="A1" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <rFont val="Times New Roman"/>
+            <charset val="0"/>
+          </rPr>
+          <t>tie:form(name="Sheet1" length="41" headerLength="0" footerLength="0" fixedWidthStyle="true")</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
+<file path=xl/comments2.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <authors>
+    <author>JASON</author>
+  </authors>
+  <commentList>
+    <comment ref="A1" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <rFont val="Times New Roman"/>
+            <charset val="0"/>
+          </rPr>
+          <t xml:space="preserve">tie:form(name="Sheet2" length="26" headerLength="0" footerLength="0" fixedWidthStyle="true")
+</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12">
   <si>
     <t>Month</t>
   </si>
@@ -57,17 +102,173 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="4">
+    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+  </numFmts>
+  <fonts count="21">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
       <name val="Calibri"/>
-      <family val="2"/>
       <charset val="134"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="34">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -80,8 +281,194 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -89,13 +476,255 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="17" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="15" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="14" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="14" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -104,34 +733,80 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="49">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="40% - Accent1" xfId="1" builtinId="31"/>
+    <cellStyle name="Comma" xfId="2" builtinId="3"/>
+    <cellStyle name="Comma [0]" xfId="3" builtinId="6"/>
+    <cellStyle name="Currency [0]" xfId="4" builtinId="7"/>
+    <cellStyle name="Currency" xfId="5" builtinId="4"/>
+    <cellStyle name="Percent" xfId="6" builtinId="5"/>
+    <cellStyle name="Check Cell" xfId="7" builtinId="23"/>
+    <cellStyle name="Heading 2" xfId="8" builtinId="17"/>
+    <cellStyle name="Note" xfId="9" builtinId="10"/>
+    <cellStyle name="Hyperlink" xfId="10" builtinId="8"/>
+    <cellStyle name="60% - Accent4" xfId="11" builtinId="44"/>
+    <cellStyle name="Followed Hyperlink" xfId="12" builtinId="9"/>
+    <cellStyle name="40% - Accent3" xfId="13" builtinId="39"/>
+    <cellStyle name="Warning Text" xfId="14" builtinId="11"/>
+    <cellStyle name="40% - Accent2" xfId="15" builtinId="35"/>
+    <cellStyle name="Title" xfId="16" builtinId="15"/>
+    <cellStyle name="CExplanatory Text" xfId="17" builtinId="53"/>
+    <cellStyle name="Heading 1" xfId="18" builtinId="16"/>
+    <cellStyle name="Heading 3" xfId="19" builtinId="18"/>
+    <cellStyle name="Heading 4" xfId="20" builtinId="19"/>
+    <cellStyle name="Input" xfId="21" builtinId="20"/>
+    <cellStyle name="60% - Accent3" xfId="22" builtinId="40"/>
+    <cellStyle name="Good" xfId="23" builtinId="26"/>
+    <cellStyle name="Output" xfId="24" builtinId="21"/>
+    <cellStyle name="20% - Accent1" xfId="25" builtinId="30"/>
+    <cellStyle name="Calculation" xfId="26" builtinId="22"/>
+    <cellStyle name="Linked Cell" xfId="27" builtinId="24"/>
+    <cellStyle name="Total" xfId="28" builtinId="25"/>
+    <cellStyle name="Bad" xfId="29" builtinId="27"/>
+    <cellStyle name="Neutral" xfId="30" builtinId="28"/>
+    <cellStyle name="Accent1" xfId="31" builtinId="29"/>
+    <cellStyle name="20% - Accent5" xfId="32" builtinId="46"/>
+    <cellStyle name="60% - Accent1" xfId="33" builtinId="32"/>
+    <cellStyle name="Accent2" xfId="34" builtinId="33"/>
+    <cellStyle name="20% - Accent2" xfId="35" builtinId="34"/>
+    <cellStyle name="20% - Accent6" xfId="36" builtinId="50"/>
+    <cellStyle name="60% - Accent2" xfId="37" builtinId="36"/>
+    <cellStyle name="Accent3" xfId="38" builtinId="37"/>
+    <cellStyle name="20% - Accent3" xfId="39" builtinId="38"/>
+    <cellStyle name="Accent4" xfId="40" builtinId="41"/>
+    <cellStyle name="20% - Accent4" xfId="41" builtinId="42"/>
+    <cellStyle name="40% - Accent4" xfId="42" builtinId="43"/>
+    <cellStyle name="Accent5" xfId="43" builtinId="45"/>
+    <cellStyle name="40% - Accent5" xfId="44" builtinId="47"/>
+    <cellStyle name="60% - Accent5" xfId="45" builtinId="48"/>
+    <cellStyle name="Accent6" xfId="46" builtinId="49"/>
+    <cellStyle name="40% - Accent6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - Accent6" xfId="48" builtinId="52"/>
   </cellStyles>
-  <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-  </extLst>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2"/>
 </styleSheet>
 </file>
 
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
-  <c:lang val="en-CA"/>
+  <c:lang val="zh-CN"/>
   <c:roundedCorners val="0"/>
-  <c:style val="2"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
   <c:chart>
-    <c:autoTitleDeleted val="0"/>
+    <c:autoTitleDeleted val="1"/>
     <c:plotArea>
       <c:layout/>
       <c:lineChart>
@@ -152,16 +827,20 @@
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:ln w="25400">
+            <a:ln w="25400" cap="rnd" cmpd="sng" algn="ctr">
               <a:solidFill>
                 <a:srgbClr val="4F81BD"/>
               </a:solidFill>
               <a:prstDash val="solid"/>
+              <a:round/>
             </a:ln>
           </c:spPr>
           <c:marker>
             <c:symbol val="none"/>
           </c:marker>
+          <c:dLbls>
+            <c:delete val="1"/>
+          </c:dLbls>
           <c:cat>
             <c:strRef>
               <c:f>Sheet1!$A$2:$A$6</c:f>
@@ -226,16 +905,20 @@
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:ln w="25400">
+            <a:ln w="25400" cap="rnd" cmpd="sng" algn="ctr">
               <a:solidFill>
                 <a:srgbClr val="C0504D"/>
               </a:solidFill>
               <a:prstDash val="solid"/>
+              <a:round/>
             </a:ln>
           </c:spPr>
           <c:marker>
             <c:symbol val="none"/>
           </c:marker>
+          <c:dLbls>
+            <c:delete val="1"/>
+          </c:dLbls>
           <c:cat>
             <c:strRef>
               <c:f>Sheet1!$A$2:$A$6</c:f>
@@ -293,7 +976,7 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:marker val="1"/>
+        <c:marker val="0"/>
         <c:smooth val="0"/>
         <c:axId val="108847872"/>
         <c:axId val="108849408"/>
@@ -309,28 +992,28 @@
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:spPr>
-          <a:ln w="3175">
+          <a:ln w="3175" cap="flat" cmpd="sng" algn="ctr">
             <a:solidFill>
               <a:srgbClr val="000000"/>
             </a:solidFill>
             <a:prstDash val="solid"/>
+            <a:round/>
           </a:ln>
         </c:spPr>
         <c:txPr>
-          <a:bodyPr rot="0" vert="horz"/>
+          <a:bodyPr rot="0" spcFirstLastPara="0" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:defRPr lang="en-US" sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
                   <a:srgbClr val="000000"/>
                 </a:solidFill>
-                <a:latin typeface="宋体"/>
-                <a:ea typeface="宋体"/>
-                <a:cs typeface="宋体"/>
+                <a:latin typeface="宋体" panose="02010600030101010101" pitchFamily="7" charset="-122"/>
+                <a:ea typeface="宋体" panose="02010600030101010101" pitchFamily="7" charset="-122"/>
+                <a:cs typeface="宋体" panose="02010600030101010101" pitchFamily="7" charset="-122"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="108849408"/>
@@ -339,7 +1022,6 @@
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
         <c:tickLblSkip val="1"/>
-        <c:tickMarkSkip val="1"/>
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
@@ -351,11 +1033,12 @@
         <c:axPos val="l"/>
         <c:majorGridlines>
           <c:spPr>
-            <a:ln w="3175">
+            <a:ln w="3175" cap="flat" cmpd="sng" algn="ctr">
               <a:solidFill>
                 <a:srgbClr val="4F81BD"/>
               </a:solidFill>
               <a:prstDash val="solid"/>
+              <a:round/>
             </a:ln>
           </c:spPr>
         </c:majorGridlines>
@@ -364,28 +1047,28 @@
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:spPr>
-          <a:ln w="3175">
+          <a:ln w="3175" cap="flat" cmpd="sng" algn="ctr">
             <a:solidFill>
               <a:srgbClr val="000000"/>
             </a:solidFill>
             <a:prstDash val="solid"/>
+            <a:round/>
           </a:ln>
         </c:spPr>
         <c:txPr>
-          <a:bodyPr rot="0" vert="horz"/>
+          <a:bodyPr rot="0" spcFirstLastPara="0" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:defRPr lang="en-US" sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
                   <a:srgbClr val="000000"/>
                 </a:solidFill>
-                <a:latin typeface="宋体"/>
-                <a:ea typeface="宋体"/>
-                <a:cs typeface="宋体"/>
+                <a:latin typeface="宋体" panose="02010600030101010101" pitchFamily="7" charset="-122"/>
+                <a:ea typeface="宋体" panose="02010600030101010101" pitchFamily="7" charset="-122"/>
+                <a:cs typeface="宋体" panose="02010600030101010101" pitchFamily="7" charset="-122"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="108847872"/>
@@ -409,40 +1092,38 @@
       <c:legendEntry>
         <c:idx val="0"/>
         <c:txPr>
-          <a:bodyPr/>
+          <a:bodyPr rot="0" spcFirstLastPara="0" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:defRPr lang="en-US" sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
                   <a:srgbClr val="000000"/>
                 </a:solidFill>
-                <a:latin typeface="宋体"/>
-                <a:ea typeface="宋体"/>
-                <a:cs typeface="宋体"/>
+                <a:latin typeface="宋体" panose="02010600030101010101" pitchFamily="7" charset="-122"/>
+                <a:ea typeface="宋体" panose="02010600030101010101" pitchFamily="7" charset="-122"/>
+                <a:cs typeface="宋体" panose="02010600030101010101" pitchFamily="7" charset="-122"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
       </c:legendEntry>
       <c:legendEntry>
         <c:idx val="1"/>
         <c:txPr>
-          <a:bodyPr/>
+          <a:bodyPr rot="0" spcFirstLastPara="0" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:defRPr lang="en-US" sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
                   <a:srgbClr val="000000"/>
                 </a:solidFill>
-                <a:latin typeface="宋体"/>
-                <a:ea typeface="宋体"/>
-                <a:cs typeface="宋体"/>
+                <a:latin typeface="宋体" panose="02010600030101010101" pitchFamily="7" charset="-122"/>
+                <a:ea typeface="宋体" panose="02010600030101010101" pitchFamily="7" charset="-122"/>
+                <a:cs typeface="宋体" panose="02010600030101010101" pitchFamily="7" charset="-122"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
       </c:legendEntry>
@@ -455,20 +1136,19 @@
         </a:ln>
       </c:spPr>
       <c:txPr>
-        <a:bodyPr/>
+        <a:bodyPr rot="0" spcFirstLastPara="0" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
         <a:lstStyle/>
         <a:p>
           <a:pPr>
-            <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" baseline="0">
+            <a:defRPr lang="en-US" sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
               <a:solidFill>
                 <a:srgbClr val="000000"/>
               </a:solidFill>
-              <a:latin typeface="宋体"/>
-              <a:ea typeface="宋体"/>
-              <a:cs typeface="宋体"/>
+              <a:latin typeface="宋体" panose="02010600030101010101" pitchFamily="7" charset="-122"/>
+              <a:ea typeface="宋体" panose="02010600030101010101" pitchFamily="7" charset="-122"/>
+              <a:cs typeface="宋体" panose="02010600030101010101" pitchFamily="7" charset="-122"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -480,11 +1160,12 @@
     <a:solidFill>
       <a:srgbClr val="FFFFFF"/>
     </a:solidFill>
-    <a:ln w="3175">
+    <a:ln w="3175" cap="flat" cmpd="sng" algn="ctr">
       <a:solidFill>
         <a:srgbClr val="000000"/>
       </a:solidFill>
       <a:prstDash val="solid"/>
+      <a:round/>
     </a:ln>
   </c:spPr>
   <c:txPr>
@@ -492,16 +1173,15 @@
     <a:lstStyle/>
     <a:p>
       <a:pPr>
-        <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" baseline="0">
+        <a:defRPr lang="en-US" sz="1000" b="0" i="0" u="none" strike="noStrike" baseline="0">
           <a:solidFill>
             <a:srgbClr val="000000"/>
           </a:solidFill>
-          <a:latin typeface="宋体"/>
-          <a:ea typeface="宋体"/>
-          <a:cs typeface="宋体"/>
+          <a:latin typeface="宋体" panose="02010600030101010101" pitchFamily="7" charset="-122"/>
+          <a:ea typeface="宋体" panose="02010600030101010101" pitchFamily="7" charset="-122"/>
+          <a:cs typeface="宋体" panose="02010600030101010101" pitchFamily="7" charset="-122"/>
         </a:defRPr>
       </a:pPr>
-      <a:endParaRPr lang="en-US"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -515,7 +1195,7 @@
 <file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
-  <c:lang val="en-CA"/>
+  <c:lang val="zh-CN"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -526,7 +1206,7 @@
     </mc:Fallback>
   </mc:AlternateContent>
   <c:chart>
-    <c:autoTitleDeleted val="0"/>
+    <c:autoTitleDeleted val="1"/>
     <c:plotArea>
       <c:layout/>
       <c:lineChart>
@@ -549,6 +1229,9 @@
           <c:marker>
             <c:symbol val="none"/>
           </c:marker>
+          <c:dLbls>
+            <c:delete val="1"/>
+          </c:dLbls>
           <c:cat>
             <c:strRef>
               <c:f>Sheet1!$A$2:$A$7</c:f>
@@ -621,6 +1304,9 @@
           <c:marker>
             <c:symbol val="none"/>
           </c:marker>
+          <c:dLbls>
+            <c:delete val="1"/>
+          </c:dLbls>
           <c:cat>
             <c:strRef>
               <c:f>Sheet1!$A$2:$A$7</c:f>
@@ -693,6 +1379,9 @@
           <c:marker>
             <c:symbol val="none"/>
           </c:marker>
+          <c:dLbls>
+            <c:delete val="1"/>
+          </c:dLbls>
           <c:cat>
             <c:strRef>
               <c:f>Sheet1!$A$2:$A$7</c:f>
@@ -756,7 +1445,7 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:marker val="1"/>
+        <c:marker val="0"/>
         <c:smooth val="0"/>
         <c:axId val="38139392"/>
         <c:axId val="38140928"/>
@@ -771,6 +1460,22 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="0" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr lang="en-US" sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+          </a:p>
+        </c:txPr>
         <c:crossAx val="38140928"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
@@ -790,6 +1495,22 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="0" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr lang="en-US" sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+          </a:p>
+        </c:txPr>
         <c:crossAx val="38139392"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
@@ -812,11 +1533,36 @@
       <c:legendPos val="r"/>
       <c:layout/>
       <c:overlay val="0"/>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="0" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr lang="en-US" sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+        </a:p>
+      </c:txPr>
     </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
     <c:showDLblsOverMax val="0"/>
   </c:chart>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr lang="en-US"/>
+      </a:pPr>
+    </a:p>
+  </c:txPr>
   <c:printSettings>
     <c:headerFooter/>
     <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
@@ -828,11 +1574,18 @@
 <file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
-  <c:lang val="en-CA"/>
+  <c:lang val="zh-CN"/>
   <c:roundedCorners val="0"/>
-  <c:style val="2"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
   <c:chart>
-    <c:autoTitleDeleted val="0"/>
+    <c:autoTitleDeleted val="1"/>
     <c:plotArea>
       <c:layout/>
       <c:lineChart>
@@ -853,16 +1606,20 @@
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:ln w="25400">
+            <a:ln w="25400" cap="rnd" cmpd="sng" algn="ctr">
               <a:solidFill>
                 <a:srgbClr val="4F81BD"/>
               </a:solidFill>
               <a:prstDash val="solid"/>
+              <a:round/>
             </a:ln>
           </c:spPr>
           <c:marker>
             <c:symbol val="none"/>
           </c:marker>
+          <c:dLbls>
+            <c:delete val="1"/>
+          </c:dLbls>
           <c:cat>
             <c:strRef>
               <c:f>Sheet2!$B$1:$D$1</c:f>
@@ -915,16 +1672,20 @@
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:ln w="25400">
+            <a:ln w="25400" cap="rnd" cmpd="sng" algn="ctr">
               <a:solidFill>
                 <a:srgbClr val="C0504D"/>
               </a:solidFill>
               <a:prstDash val="solid"/>
+              <a:round/>
             </a:ln>
           </c:spPr>
           <c:marker>
             <c:symbol val="none"/>
           </c:marker>
+          <c:dLbls>
+            <c:delete val="1"/>
+          </c:dLbls>
           <c:cat>
             <c:strRef>
               <c:f>Sheet2!$B$1:$D$1</c:f>
@@ -977,16 +1738,20 @@
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:ln w="25400">
+            <a:ln w="25400" cap="rnd" cmpd="sng" algn="ctr">
               <a:solidFill>
                 <a:srgbClr val="9BBB59"/>
               </a:solidFill>
               <a:prstDash val="solid"/>
+              <a:round/>
             </a:ln>
           </c:spPr>
           <c:marker>
             <c:symbol val="none"/>
           </c:marker>
+          <c:dLbls>
+            <c:delete val="1"/>
+          </c:dLbls>
           <c:cat>
             <c:strRef>
               <c:f>Sheet2!$B$1:$D$1</c:f>
@@ -1039,16 +1804,20 @@
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:ln w="25400">
+            <a:ln w="25400" cap="rnd" cmpd="sng" algn="ctr">
               <a:solidFill>
                 <a:srgbClr val="8064A2"/>
               </a:solidFill>
               <a:prstDash val="solid"/>
+              <a:round/>
             </a:ln>
           </c:spPr>
           <c:marker>
             <c:symbol val="none"/>
           </c:marker>
+          <c:dLbls>
+            <c:delete val="1"/>
+          </c:dLbls>
           <c:cat>
             <c:strRef>
               <c:f>Sheet2!$B$1:$D$1</c:f>
@@ -1101,16 +1870,20 @@
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:ln w="25400">
+            <a:ln w="25400" cap="rnd" cmpd="sng" algn="ctr">
               <a:solidFill>
                 <a:srgbClr val="4BACC6"/>
               </a:solidFill>
               <a:prstDash val="solid"/>
+              <a:round/>
             </a:ln>
           </c:spPr>
           <c:marker>
             <c:symbol val="none"/>
           </c:marker>
+          <c:dLbls>
+            <c:delete val="1"/>
+          </c:dLbls>
           <c:cat>
             <c:strRef>
               <c:f>Sheet2!$B$1:$D$1</c:f>
@@ -1163,16 +1936,20 @@
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:ln w="25400">
+            <a:ln w="25400" cap="rnd" cmpd="sng" algn="ctr">
               <a:solidFill>
                 <a:srgbClr val="F79646"/>
               </a:solidFill>
               <a:prstDash val="solid"/>
+              <a:round/>
             </a:ln>
           </c:spPr>
           <c:marker>
             <c:symbol val="none"/>
           </c:marker>
+          <c:dLbls>
+            <c:delete val="1"/>
+          </c:dLbls>
           <c:cat>
             <c:strRef>
               <c:f>Sheet2!$B$1:$D$1</c:f>
@@ -1225,16 +2002,20 @@
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:ln w="25400">
+            <a:ln w="25400" cap="rnd" cmpd="sng" algn="ctr">
               <a:solidFill>
                 <a:srgbClr val="4F81BD"/>
               </a:solidFill>
               <a:prstDash val="solid"/>
+              <a:round/>
             </a:ln>
           </c:spPr>
           <c:marker>
             <c:symbol val="none"/>
           </c:marker>
+          <c:dLbls>
+            <c:delete val="1"/>
+          </c:dLbls>
           <c:cat>
             <c:strRef>
               <c:f>Sheet2!$B$1:$D$1</c:f>
@@ -1287,16 +2068,20 @@
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:ln w="25400">
+            <a:ln w="25400" cap="rnd" cmpd="sng" algn="ctr">
               <a:solidFill>
                 <a:srgbClr val="C0504D"/>
               </a:solidFill>
               <a:prstDash val="solid"/>
+              <a:round/>
             </a:ln>
           </c:spPr>
           <c:marker>
             <c:symbol val="none"/>
           </c:marker>
+          <c:dLbls>
+            <c:delete val="1"/>
+          </c:dLbls>
           <c:cat>
             <c:strRef>
               <c:f>Sheet2!$B$1:$D$1</c:f>
@@ -1342,7 +2127,7 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:marker val="1"/>
+        <c:marker val="0"/>
         <c:smooth val="0"/>
         <c:axId val="110703360"/>
         <c:axId val="110704896"/>
@@ -1358,28 +2143,28 @@
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:spPr>
-          <a:ln w="3175">
+          <a:ln w="3175" cap="flat" cmpd="sng" algn="ctr">
             <a:solidFill>
               <a:srgbClr val="000000"/>
             </a:solidFill>
             <a:prstDash val="solid"/>
+            <a:round/>
           </a:ln>
         </c:spPr>
         <c:txPr>
-          <a:bodyPr rot="0" vert="horz"/>
+          <a:bodyPr rot="0" spcFirstLastPara="0" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:defRPr lang="en-US" sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
                   <a:srgbClr val="000000"/>
                 </a:solidFill>
-                <a:latin typeface="宋体"/>
-                <a:ea typeface="宋体"/>
-                <a:cs typeface="宋体"/>
+                <a:latin typeface="宋体" panose="02010600030101010101" pitchFamily="7" charset="-122"/>
+                <a:ea typeface="宋体" panose="02010600030101010101" pitchFamily="7" charset="-122"/>
+                <a:cs typeface="宋体" panose="02010600030101010101" pitchFamily="7" charset="-122"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="110704896"/>
@@ -1388,7 +2173,6 @@
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
         <c:tickLblSkip val="1"/>
-        <c:tickMarkSkip val="1"/>
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
@@ -1400,11 +2184,12 @@
         <c:axPos val="l"/>
         <c:majorGridlines>
           <c:spPr>
-            <a:ln w="3175">
+            <a:ln w="3175" cap="flat" cmpd="sng" algn="ctr">
               <a:solidFill>
                 <a:srgbClr val="000000"/>
               </a:solidFill>
               <a:prstDash val="solid"/>
+              <a:round/>
             </a:ln>
           </c:spPr>
         </c:majorGridlines>
@@ -1413,28 +2198,28 @@
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:spPr>
-          <a:ln w="3175">
+          <a:ln w="3175" cap="flat" cmpd="sng" algn="ctr">
             <a:solidFill>
               <a:srgbClr val="000000"/>
             </a:solidFill>
             <a:prstDash val="solid"/>
+            <a:round/>
           </a:ln>
         </c:spPr>
         <c:txPr>
-          <a:bodyPr rot="0" vert="horz"/>
+          <a:bodyPr rot="0" spcFirstLastPara="0" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:defRPr lang="en-US" sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
                   <a:srgbClr val="000000"/>
                 </a:solidFill>
-                <a:latin typeface="宋体"/>
-                <a:ea typeface="宋体"/>
-                <a:cs typeface="宋体"/>
+                <a:latin typeface="宋体" panose="02010600030101010101" pitchFamily="7" charset="-122"/>
+                <a:ea typeface="宋体" panose="02010600030101010101" pitchFamily="7" charset="-122"/>
+                <a:cs typeface="宋体" panose="02010600030101010101" pitchFamily="7" charset="-122"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="110703360"/>
@@ -1455,163 +2240,156 @@
       <c:legendEntry>
         <c:idx val="0"/>
         <c:txPr>
-          <a:bodyPr/>
+          <a:bodyPr rot="0" spcFirstLastPara="0" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:defRPr lang="en-US" sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
                   <a:srgbClr val="000000"/>
                 </a:solidFill>
-                <a:latin typeface="宋体"/>
-                <a:ea typeface="宋体"/>
-                <a:cs typeface="宋体"/>
+                <a:latin typeface="宋体" panose="02010600030101010101" pitchFamily="7" charset="-122"/>
+                <a:ea typeface="宋体" panose="02010600030101010101" pitchFamily="7" charset="-122"/>
+                <a:cs typeface="宋体" panose="02010600030101010101" pitchFamily="7" charset="-122"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
       </c:legendEntry>
       <c:legendEntry>
         <c:idx val="1"/>
         <c:txPr>
-          <a:bodyPr/>
+          <a:bodyPr rot="0" spcFirstLastPara="0" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:defRPr lang="en-US" sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
                   <a:srgbClr val="000000"/>
                 </a:solidFill>
-                <a:latin typeface="宋体"/>
-                <a:ea typeface="宋体"/>
-                <a:cs typeface="宋体"/>
+                <a:latin typeface="宋体" panose="02010600030101010101" pitchFamily="7" charset="-122"/>
+                <a:ea typeface="宋体" panose="02010600030101010101" pitchFamily="7" charset="-122"/>
+                <a:cs typeface="宋体" panose="02010600030101010101" pitchFamily="7" charset="-122"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
       </c:legendEntry>
       <c:legendEntry>
         <c:idx val="2"/>
         <c:txPr>
-          <a:bodyPr/>
+          <a:bodyPr rot="0" spcFirstLastPara="0" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:defRPr lang="en-US" sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
                   <a:srgbClr val="000000"/>
                 </a:solidFill>
-                <a:latin typeface="宋体"/>
-                <a:ea typeface="宋体"/>
-                <a:cs typeface="宋体"/>
+                <a:latin typeface="宋体" panose="02010600030101010101" pitchFamily="7" charset="-122"/>
+                <a:ea typeface="宋体" panose="02010600030101010101" pitchFamily="7" charset="-122"/>
+                <a:cs typeface="宋体" panose="02010600030101010101" pitchFamily="7" charset="-122"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
       </c:legendEntry>
       <c:legendEntry>
         <c:idx val="3"/>
         <c:txPr>
-          <a:bodyPr/>
+          <a:bodyPr rot="0" spcFirstLastPara="0" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:defRPr lang="en-US" sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
                   <a:srgbClr val="000000"/>
                 </a:solidFill>
-                <a:latin typeface="宋体"/>
-                <a:ea typeface="宋体"/>
-                <a:cs typeface="宋体"/>
+                <a:latin typeface="宋体" panose="02010600030101010101" pitchFamily="7" charset="-122"/>
+                <a:ea typeface="宋体" panose="02010600030101010101" pitchFamily="7" charset="-122"/>
+                <a:cs typeface="宋体" panose="02010600030101010101" pitchFamily="7" charset="-122"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
       </c:legendEntry>
       <c:legendEntry>
         <c:idx val="4"/>
         <c:txPr>
-          <a:bodyPr/>
+          <a:bodyPr rot="0" spcFirstLastPara="0" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:defRPr lang="en-US" sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
                   <a:srgbClr val="000000"/>
                 </a:solidFill>
-                <a:latin typeface="宋体"/>
-                <a:ea typeface="宋体"/>
-                <a:cs typeface="宋体"/>
+                <a:latin typeface="宋体" panose="02010600030101010101" pitchFamily="7" charset="-122"/>
+                <a:ea typeface="宋体" panose="02010600030101010101" pitchFamily="7" charset="-122"/>
+                <a:cs typeface="宋体" panose="02010600030101010101" pitchFamily="7" charset="-122"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
       </c:legendEntry>
       <c:legendEntry>
         <c:idx val="5"/>
         <c:txPr>
-          <a:bodyPr/>
+          <a:bodyPr rot="0" spcFirstLastPara="0" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:defRPr lang="en-US" sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
                   <a:srgbClr val="000000"/>
                 </a:solidFill>
-                <a:latin typeface="宋体"/>
-                <a:ea typeface="宋体"/>
-                <a:cs typeface="宋体"/>
+                <a:latin typeface="宋体" panose="02010600030101010101" pitchFamily="7" charset="-122"/>
+                <a:ea typeface="宋体" panose="02010600030101010101" pitchFamily="7" charset="-122"/>
+                <a:cs typeface="宋体" panose="02010600030101010101" pitchFamily="7" charset="-122"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
       </c:legendEntry>
       <c:legendEntry>
         <c:idx val="6"/>
         <c:txPr>
-          <a:bodyPr/>
+          <a:bodyPr rot="0" spcFirstLastPara="0" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:defRPr lang="en-US" sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
                   <a:srgbClr val="000000"/>
                 </a:solidFill>
-                <a:latin typeface="宋体"/>
-                <a:ea typeface="宋体"/>
-                <a:cs typeface="宋体"/>
+                <a:latin typeface="宋体" panose="02010600030101010101" pitchFamily="7" charset="-122"/>
+                <a:ea typeface="宋体" panose="02010600030101010101" pitchFamily="7" charset="-122"/>
+                <a:cs typeface="宋体" panose="02010600030101010101" pitchFamily="7" charset="-122"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
       </c:legendEntry>
       <c:legendEntry>
         <c:idx val="7"/>
         <c:txPr>
-          <a:bodyPr/>
+          <a:bodyPr rot="0" spcFirstLastPara="0" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:defRPr lang="en-US" sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
                   <a:srgbClr val="000000"/>
                 </a:solidFill>
-                <a:latin typeface="宋体"/>
-                <a:ea typeface="宋体"/>
-                <a:cs typeface="宋体"/>
+                <a:latin typeface="宋体" panose="02010600030101010101" pitchFamily="7" charset="-122"/>
+                <a:ea typeface="宋体" panose="02010600030101010101" pitchFamily="7" charset="-122"/>
+                <a:cs typeface="宋体" panose="02010600030101010101" pitchFamily="7" charset="-122"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
       </c:legendEntry>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1620,20 +2398,19 @@
         </a:ln>
       </c:spPr>
       <c:txPr>
-        <a:bodyPr/>
+        <a:bodyPr rot="0" spcFirstLastPara="0" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
         <a:lstStyle/>
         <a:p>
           <a:pPr>
-            <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" baseline="0">
+            <a:defRPr lang="en-US" sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
               <a:solidFill>
                 <a:srgbClr val="000000"/>
               </a:solidFill>
-              <a:latin typeface="宋体"/>
-              <a:ea typeface="宋体"/>
-              <a:cs typeface="宋体"/>
+              <a:latin typeface="宋体" panose="02010600030101010101" pitchFamily="7" charset="-122"/>
+              <a:ea typeface="宋体" panose="02010600030101010101" pitchFamily="7" charset="-122"/>
+              <a:cs typeface="宋体" panose="02010600030101010101" pitchFamily="7" charset="-122"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -1645,11 +2422,12 @@
     <a:solidFill>
       <a:srgbClr val="FFFFFF"/>
     </a:solidFill>
-    <a:ln w="3175">
+    <a:ln w="3175" cap="flat" cmpd="sng" algn="ctr">
       <a:solidFill>
         <a:srgbClr val="000000"/>
       </a:solidFill>
       <a:prstDash val="solid"/>
+      <a:round/>
     </a:ln>
   </c:spPr>
   <c:txPr>
@@ -1657,16 +2435,15 @@
     <a:lstStyle/>
     <a:p>
       <a:pPr>
-        <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" baseline="0">
+        <a:defRPr lang="en-US" sz="1000" b="0" i="0" u="none" strike="noStrike" baseline="0">
           <a:solidFill>
             <a:srgbClr val="000000"/>
           </a:solidFill>
-          <a:latin typeface="宋体"/>
-          <a:ea typeface="宋体"/>
-          <a:cs typeface="宋体"/>
+          <a:latin typeface="宋体" panose="02010600030101010101" pitchFamily="7" charset="-122"/>
+          <a:ea typeface="宋体" panose="02010600030101010101" pitchFamily="7" charset="-122"/>
+          <a:cs typeface="宋体" panose="02010600030101010101" pitchFamily="7" charset="-122"/>
         </a:defRPr>
       </a:pPr>
-      <a:endParaRPr lang="en-US"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -1678,7 +2455,7 @@
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>0</xdr:col>
@@ -1692,14 +2469,14 @@
       <xdr:row>38</xdr:row>
       <xdr:rowOff>152400</xdr:rowOff>
     </xdr:to>
-    <xdr:graphicFrame macro="">
+    <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="2048" name="Chart 1"/>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="0" y="0"/>
-        <a:ext cx="0" cy="0"/>
+        <a:off x="95250" y="4834890"/>
+        <a:ext cx="3814445" cy="2533650"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -1722,14 +2499,14 @@
       <xdr:row>22</xdr:row>
       <xdr:rowOff>64770</xdr:rowOff>
     </xdr:to>
-    <xdr:graphicFrame macro="">
+    <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="2" name="Chart 1"/>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="0" y="0"/>
-        <a:ext cx="0" cy="0"/>
+        <a:off x="102870" y="1375410"/>
+        <a:ext cx="4473575" cy="2857500"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -1743,7 +2520,7 @@
 </file>
 
 <file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>0</xdr:col>
@@ -1757,14 +2534,14 @@
       <xdr:row>23</xdr:row>
       <xdr:rowOff>129540</xdr:rowOff>
     </xdr:to>
-    <xdr:graphicFrame macro="">
+    <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="4097" name="Chart 2"/>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="0" y="0"/>
-        <a:ext cx="0" cy="0"/>
+        <a:off x="0" y="1764030"/>
+        <a:ext cx="4729480" cy="2747010"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -1823,71 +2600,71 @@
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Arab" typeface="Times New Roman"/>
-        <a:font script="Beng" typeface="Vrinda"/>
-        <a:font script="Cans" typeface="Euphemia"/>
-        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
-        <a:font script="Deva" typeface="Mangal"/>
-        <a:font script="Ethi" typeface="Nyala"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Gujr" typeface="Shruti"/>
-        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
         <a:font script="Hans" typeface="宋体"/>
         <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
         <a:font script="Hebr" typeface="Times New Roman"/>
-        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
         <a:font script="Khmr" typeface="MoolBoran"/>
         <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
         <a:font script="Laoo" typeface="DokChampa"/>
-        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
         <a:font script="Mong" typeface="Mongolian Baiti"/>
-        <a:font script="Orya" typeface="Kalinga"/>
-        <a:font script="Sinh" typeface="Iskoola Pota"/>
-        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
-        <a:font script="Taml" typeface="Latha"/>
-        <a:font script="Telu" typeface="Gautami"/>
-        <a:font script="Thaa" typeface="MV Boli"/>
-        <a:font script="Thai" typeface="Tahoma"/>
-        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Viet" typeface="Times New Roman"/>
-        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Arab" typeface="Arial"/>
-        <a:font script="Beng" typeface="Vrinda"/>
-        <a:font script="Cans" typeface="Euphemia"/>
-        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
-        <a:font script="Deva" typeface="Mangal"/>
-        <a:font script="Ethi" typeface="Nyala"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Gujr" typeface="Shruti"/>
-        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
         <a:font script="Hans" typeface="宋体"/>
         <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
         <a:font script="Hebr" typeface="Arial"/>
-        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
         <a:font script="Khmr" typeface="DaunPenh"/>
         <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
         <a:font script="Laoo" typeface="DokChampa"/>
-        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
         <a:font script="Mong" typeface="Mongolian Baiti"/>
-        <a:font script="Orya" typeface="Kalinga"/>
-        <a:font script="Sinh" typeface="Iskoola Pota"/>
-        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
-        <a:font script="Taml" typeface="Latha"/>
-        <a:font script="Telu" typeface="Gautami"/>
-        <a:font script="Thaa" typeface="MV Boli"/>
-        <a:font script="Thai" typeface="Tahoma"/>
-        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Viet" typeface="Arial"/>
-        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -2100,27 +2877,27 @@
       <a:lstStyle/>
     </a:spDef>
   </a:objectDefaults>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr/>
   <dimension ref="A1:I40"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H24" sqref="H24"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="15" customWidth="1"/>
-    <col min="2" max="2" width="17.33203125" customWidth="1"/>
-    <col min="3" max="3" width="19.109375" customWidth="1"/>
-    <col min="4" max="4" width="31.6640625" customWidth="1"/>
+    <col min="2" max="2" width="17.3333333333333" customWidth="1"/>
+    <col min="3" max="3" width="19.1047619047619" customWidth="1"/>
+    <col min="4" max="4" width="31.6666666666667" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9">
+    <row r="1" spans="1:4">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2134,7 +2911,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:9">
+    <row r="2" spans="1:4">
       <c r="A2" t="s">
         <v>4</v>
       </c>
@@ -2148,7 +2925,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="3" spans="1:9">
+    <row r="3" spans="1:4">
       <c r="A3" t="s">
         <v>5</v>
       </c>
@@ -2162,7 +2939,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="4" spans="1:9">
+    <row r="4" spans="1:4">
       <c r="A4" t="s">
         <v>6</v>
       </c>
@@ -2176,7 +2953,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="5" spans="1:9">
+    <row r="5" spans="1:4">
       <c r="A5" t="s">
         <v>7</v>
       </c>
@@ -2190,7 +2967,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="6" spans="1:9">
+    <row r="6" spans="1:4">
       <c r="A6" t="s">
         <v>8</v>
       </c>
@@ -2204,7 +2981,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="7" spans="1:9" ht="13.2" customHeight="1">
+    <row r="7" ht="13.2" customHeight="1" spans="1:4">
       <c r="A7" t="s">
         <v>9</v>
       </c>
@@ -2219,80 +2996,80 @@
       </c>
     </row>
     <row r="8" spans="1:9">
-      <c r="A8" s="4"/>
-      <c r="B8" s="4"/>
-      <c r="C8" s="4"/>
-      <c r="D8" s="4"/>
+      <c r="A8" s="3"/>
+      <c r="B8" s="3"/>
+      <c r="C8" s="3"/>
+      <c r="D8" s="3"/>
       <c r="I8" s="3"/>
     </row>
     <row r="9" spans="1:9">
-      <c r="A9" s="4"/>
-      <c r="B9" s="4"/>
-      <c r="C9" s="4"/>
-      <c r="D9" s="4"/>
+      <c r="A9" s="3"/>
+      <c r="B9" s="3"/>
+      <c r="C9" s="3"/>
+      <c r="D9" s="3"/>
       <c r="I9" s="3"/>
     </row>
     <row r="10" spans="1:9">
-      <c r="A10" s="4"/>
-      <c r="B10" s="4"/>
-      <c r="C10" s="4"/>
-      <c r="D10" s="4"/>
+      <c r="A10" s="3"/>
+      <c r="B10" s="3"/>
+      <c r="C10" s="3"/>
+      <c r="D10" s="3"/>
       <c r="I10" s="3"/>
     </row>
     <row r="11" spans="1:9">
-      <c r="A11" s="4"/>
-      <c r="B11" s="4"/>
-      <c r="C11" s="4"/>
-      <c r="D11" s="4"/>
+      <c r="A11" s="3"/>
+      <c r="B11" s="3"/>
+      <c r="C11" s="3"/>
+      <c r="D11" s="3"/>
       <c r="I11" s="3"/>
     </row>
     <row r="12" spans="1:9">
-      <c r="A12" s="4"/>
-      <c r="B12" s="4"/>
-      <c r="C12" s="4"/>
-      <c r="D12" s="4"/>
+      <c r="A12" s="3"/>
+      <c r="B12" s="3"/>
+      <c r="C12" s="3"/>
+      <c r="D12" s="3"/>
       <c r="I12" s="3"/>
     </row>
     <row r="13" spans="1:9">
-      <c r="A13" s="4"/>
-      <c r="B13" s="4"/>
-      <c r="C13" s="4"/>
-      <c r="D13" s="4"/>
+      <c r="A13" s="3"/>
+      <c r="B13" s="3"/>
+      <c r="C13" s="3"/>
+      <c r="D13" s="3"/>
       <c r="I13" s="3"/>
     </row>
     <row r="14" spans="1:9">
-      <c r="A14" s="4"/>
-      <c r="B14" s="4"/>
-      <c r="C14" s="4"/>
-      <c r="D14" s="4"/>
+      <c r="A14" s="3"/>
+      <c r="B14" s="3"/>
+      <c r="C14" s="3"/>
+      <c r="D14" s="3"/>
       <c r="I14" s="3"/>
     </row>
     <row r="15" spans="1:9">
-      <c r="A15" s="4"/>
-      <c r="B15" s="4"/>
-      <c r="C15" s="4"/>
-      <c r="D15" s="4"/>
+      <c r="A15" s="3"/>
+      <c r="B15" s="3"/>
+      <c r="C15" s="3"/>
+      <c r="D15" s="3"/>
       <c r="I15" s="3"/>
     </row>
     <row r="16" spans="1:9">
-      <c r="A16" s="4"/>
-      <c r="B16" s="4"/>
-      <c r="C16" s="4"/>
-      <c r="D16" s="4"/>
+      <c r="A16" s="3"/>
+      <c r="B16" s="3"/>
+      <c r="C16" s="3"/>
+      <c r="D16" s="3"/>
       <c r="I16" s="3"/>
     </row>
     <row r="17" spans="1:9">
-      <c r="A17" s="4"/>
-      <c r="B17" s="4"/>
-      <c r="C17" s="4"/>
-      <c r="D17" s="4"/>
+      <c r="A17" s="3"/>
+      <c r="B17" s="3"/>
+      <c r="C17" s="3"/>
+      <c r="D17" s="3"/>
       <c r="I17" s="3"/>
     </row>
     <row r="18" spans="1:9">
-      <c r="A18" s="4"/>
-      <c r="B18" s="4"/>
-      <c r="C18" s="4"/>
-      <c r="D18" s="4"/>
+      <c r="A18" s="3"/>
+      <c r="B18" s="3"/>
+      <c r="C18" s="3"/>
+      <c r="D18" s="3"/>
       <c r="E18" s="3"/>
       <c r="F18" s="3"/>
       <c r="G18" s="3"/>
@@ -2300,159 +3077,161 @@
       <c r="I18" s="3"/>
     </row>
     <row r="19" spans="1:9">
-      <c r="A19" s="4"/>
-      <c r="B19" s="4"/>
-      <c r="C19" s="4"/>
-      <c r="D19" s="4"/>
+      <c r="A19" s="3"/>
+      <c r="B19" s="3"/>
+      <c r="C19" s="3"/>
+      <c r="D19" s="3"/>
       <c r="E19" s="3"/>
       <c r="F19" s="3"/>
       <c r="G19" s="3"/>
       <c r="H19" s="3"/>
       <c r="I19" s="3"/>
     </row>
-    <row r="20" spans="1:9">
-      <c r="A20" s="4"/>
-      <c r="B20" s="4"/>
-      <c r="C20" s="4"/>
-      <c r="D20" s="4"/>
-    </row>
-    <row r="21" spans="1:9">
-      <c r="A21" s="4"/>
-      <c r="B21" s="4"/>
-      <c r="C21" s="4"/>
-      <c r="D21" s="4"/>
-    </row>
-    <row r="22" spans="1:9">
-      <c r="A22" s="4"/>
-      <c r="B22" s="4"/>
-      <c r="C22" s="4"/>
-      <c r="D22" s="4"/>
-    </row>
-    <row r="23" spans="1:9">
-      <c r="A23" s="4"/>
-      <c r="B23" s="4"/>
-      <c r="C23" s="4"/>
-      <c r="D23" s="4"/>
-    </row>
-    <row r="26" spans="1:9">
-      <c r="A26" s="5"/>
-      <c r="B26" s="5"/>
-      <c r="C26" s="5"/>
-      <c r="D26" s="5"/>
-    </row>
-    <row r="27" spans="1:9">
-      <c r="A27" s="5"/>
-      <c r="B27" s="5"/>
-      <c r="C27" s="5"/>
-      <c r="D27" s="5"/>
-    </row>
-    <row r="28" spans="1:9">
-      <c r="A28" s="5"/>
-      <c r="B28" s="5"/>
-      <c r="C28" s="5"/>
-      <c r="D28" s="5"/>
-    </row>
-    <row r="29" spans="1:9">
-      <c r="A29" s="5"/>
-      <c r="B29" s="5"/>
-      <c r="C29" s="5"/>
-      <c r="D29" s="5"/>
-    </row>
-    <row r="30" spans="1:9">
-      <c r="A30" s="5"/>
-      <c r="B30" s="5"/>
-      <c r="C30" s="5"/>
-      <c r="D30" s="5"/>
-    </row>
-    <row r="31" spans="1:9">
-      <c r="A31" s="5"/>
-      <c r="B31" s="5"/>
-      <c r="C31" s="5"/>
-      <c r="D31" s="5"/>
-    </row>
-    <row r="32" spans="1:9">
-      <c r="A32" s="5"/>
-      <c r="B32" s="5"/>
-      <c r="C32" s="5"/>
-      <c r="D32" s="5"/>
+    <row r="20" spans="1:4">
+      <c r="A20" s="3"/>
+      <c r="B20" s="3"/>
+      <c r="C20" s="3"/>
+      <c r="D20" s="3"/>
+    </row>
+    <row r="21" spans="1:4">
+      <c r="A21" s="3"/>
+      <c r="B21" s="3"/>
+      <c r="C21" s="3"/>
+      <c r="D21" s="3"/>
+    </row>
+    <row r="22" spans="1:4">
+      <c r="A22" s="3"/>
+      <c r="B22" s="3"/>
+      <c r="C22" s="3"/>
+      <c r="D22" s="3"/>
+    </row>
+    <row r="23" spans="1:4">
+      <c r="A23" s="3"/>
+      <c r="B23" s="3"/>
+      <c r="C23" s="3"/>
+      <c r="D23" s="3"/>
+    </row>
+    <row r="26" spans="1:4">
+      <c r="A26" s="4"/>
+      <c r="B26" s="4"/>
+      <c r="C26" s="4"/>
+      <c r="D26" s="4"/>
+    </row>
+    <row r="27" spans="1:4">
+      <c r="A27" s="4"/>
+      <c r="B27" s="4"/>
+      <c r="C27" s="4"/>
+      <c r="D27" s="4"/>
+    </row>
+    <row r="28" spans="1:4">
+      <c r="A28" s="4"/>
+      <c r="B28" s="4"/>
+      <c r="C28" s="4"/>
+      <c r="D28" s="4"/>
+    </row>
+    <row r="29" spans="1:4">
+      <c r="A29" s="4"/>
+      <c r="B29" s="4"/>
+      <c r="C29" s="4"/>
+      <c r="D29" s="4"/>
+    </row>
+    <row r="30" spans="1:4">
+      <c r="A30" s="4"/>
+      <c r="B30" s="4"/>
+      <c r="C30" s="4"/>
+      <c r="D30" s="4"/>
+    </row>
+    <row r="31" spans="1:4">
+      <c r="A31" s="4"/>
+      <c r="B31" s="4"/>
+      <c r="C31" s="4"/>
+      <c r="D31" s="4"/>
+    </row>
+    <row r="32" spans="1:4">
+      <c r="A32" s="4"/>
+      <c r="B32" s="4"/>
+      <c r="C32" s="4"/>
+      <c r="D32" s="4"/>
     </row>
     <row r="33" spans="1:4">
-      <c r="A33" s="5"/>
-      <c r="B33" s="5"/>
-      <c r="C33" s="5"/>
-      <c r="D33" s="5"/>
+      <c r="A33" s="4"/>
+      <c r="B33" s="4"/>
+      <c r="C33" s="4"/>
+      <c r="D33" s="4"/>
     </row>
     <row r="34" spans="1:4">
-      <c r="A34" s="5"/>
-      <c r="B34" s="5"/>
-      <c r="C34" s="5"/>
-      <c r="D34" s="5"/>
+      <c r="A34" s="4"/>
+      <c r="B34" s="4"/>
+      <c r="C34" s="4"/>
+      <c r="D34" s="4"/>
     </row>
     <row r="35" spans="1:4">
-      <c r="A35" s="5"/>
-      <c r="B35" s="5"/>
-      <c r="C35" s="5"/>
-      <c r="D35" s="5"/>
+      <c r="A35" s="4"/>
+      <c r="B35" s="4"/>
+      <c r="C35" s="4"/>
+      <c r="D35" s="4"/>
     </row>
     <row r="36" spans="1:4">
-      <c r="A36" s="5"/>
-      <c r="B36" s="5"/>
-      <c r="C36" s="5"/>
-      <c r="D36" s="5"/>
+      <c r="A36" s="4"/>
+      <c r="B36" s="4"/>
+      <c r="C36" s="4"/>
+      <c r="D36" s="4"/>
     </row>
     <row r="37" spans="1:4">
-      <c r="A37" s="5"/>
-      <c r="B37" s="5"/>
-      <c r="C37" s="5"/>
-      <c r="D37" s="5"/>
+      <c r="A37" s="4"/>
+      <c r="B37" s="4"/>
+      <c r="C37" s="4"/>
+      <c r="D37" s="4"/>
     </row>
     <row r="38" spans="1:4">
-      <c r="A38" s="5"/>
-      <c r="B38" s="5"/>
-      <c r="C38" s="5"/>
-      <c r="D38" s="5"/>
+      <c r="A38" s="4"/>
+      <c r="B38" s="4"/>
+      <c r="C38" s="4"/>
+      <c r="D38" s="4"/>
     </row>
     <row r="39" spans="1:4">
-      <c r="A39" s="5"/>
-      <c r="B39" s="5"/>
-      <c r="C39" s="5"/>
-      <c r="D39" s="5"/>
+      <c r="A39" s="4"/>
+      <c r="B39" s="4"/>
+      <c r="C39" s="4"/>
+      <c r="D39" s="4"/>
     </row>
     <row r="40" spans="1:4">
-      <c r="A40" s="5"/>
-      <c r="B40" s="5"/>
-      <c r="C40" s="5"/>
-      <c r="D40" s="5"/>
+      <c r="A40" s="4"/>
+      <c r="B40" s="4"/>
+      <c r="C40" s="4"/>
+      <c r="D40" s="4"/>
     </row>
   </sheetData>
   <mergeCells count="2">
     <mergeCell ref="A8:D23"/>
     <mergeCell ref="A26:D40"/>
   </mergeCells>
-  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait"/>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="1" orientation="portrait"/>
   <headerFooter alignWithMargins="0"/>
-  <drawing r:id="rId1"/>
+  <drawing r:id="rId2"/>
+  <legacyDrawing r:id="rId3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr/>
   <dimension ref="A1:H25"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I11" sqref="I11"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J6" sqref="J6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelCol="7"/>
   <cols>
-    <col min="1" max="1" width="19.77734375" customWidth="1"/>
+    <col min="1" max="1" width="19.7809523809524" customWidth="1"/>
     <col min="2" max="2" width="17" customWidth="1"/>
-    <col min="3" max="3" width="16.77734375" customWidth="1"/>
+    <col min="3" max="3" width="16.7809523809524" customWidth="1"/>
     <col min="4" max="4" width="23" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:4">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2466,7 +3245,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:8">
+    <row r="2" spans="1:4">
       <c r="A2" t="s">
         <v>4</v>
       </c>
@@ -2480,7 +3259,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="3" spans="1:8">
+    <row r="3" spans="1:4">
       <c r="A3" t="s">
         <v>5</v>
       </c>
@@ -2494,7 +3273,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="4" spans="1:8">
+    <row r="4" spans="1:4">
       <c r="A4" t="s">
         <v>6</v>
       </c>
@@ -2508,7 +3287,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="5" spans="1:8">
+    <row r="5" spans="1:4">
       <c r="A5" t="s">
         <v>7</v>
       </c>
@@ -2522,7 +3301,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="6" spans="1:8">
+    <row r="6" spans="1:4">
       <c r="A6" t="s">
         <v>8</v>
       </c>
@@ -2536,7 +3315,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="7" spans="1:8">
+    <row r="7" spans="1:4">
       <c r="A7" t="s">
         <v>9</v>
       </c>
@@ -2550,7 +3329,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="8" spans="1:8">
+    <row r="8" spans="1:4">
       <c r="A8" t="s">
         <v>10</v>
       </c>
@@ -2564,7 +3343,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="9" spans="1:8">
+    <row r="9" spans="1:4">
       <c r="A9" t="s">
         <v>11</v>
       </c>
@@ -2579,185 +3358,189 @@
       </c>
     </row>
     <row r="10" spans="1:8">
-      <c r="A10" s="4"/>
-      <c r="B10" s="4"/>
-      <c r="C10" s="4"/>
-      <c r="D10" s="4"/>
-      <c r="E10" s="4"/>
-      <c r="F10" s="4"/>
-      <c r="G10" s="4"/>
-      <c r="H10" s="4"/>
+      <c r="A10" s="3"/>
+      <c r="B10" s="3"/>
+      <c r="C10" s="3"/>
+      <c r="D10" s="3"/>
+      <c r="E10" s="3"/>
+      <c r="F10" s="3"/>
+      <c r="G10" s="3"/>
+      <c r="H10" s="3"/>
     </row>
     <row r="11" spans="1:8">
-      <c r="A11" s="4"/>
-      <c r="B11" s="4"/>
-      <c r="C11" s="4"/>
-      <c r="D11" s="4"/>
-      <c r="E11" s="4"/>
-      <c r="F11" s="4"/>
-      <c r="G11" s="4"/>
-      <c r="H11" s="4"/>
+      <c r="A11" s="3"/>
+      <c r="B11" s="3"/>
+      <c r="C11" s="3"/>
+      <c r="D11" s="3"/>
+      <c r="E11" s="3"/>
+      <c r="F11" s="3"/>
+      <c r="G11" s="3"/>
+      <c r="H11" s="3"/>
     </row>
     <row r="12" spans="1:8">
-      <c r="A12" s="4"/>
-      <c r="B12" s="4"/>
-      <c r="C12" s="4"/>
-      <c r="D12" s="4"/>
-      <c r="E12" s="4"/>
-      <c r="F12" s="4"/>
-      <c r="G12" s="4"/>
-      <c r="H12" s="4"/>
+      <c r="A12" s="3"/>
+      <c r="B12" s="3"/>
+      <c r="C12" s="3"/>
+      <c r="D12" s="3"/>
+      <c r="E12" s="3"/>
+      <c r="F12" s="3"/>
+      <c r="G12" s="3"/>
+      <c r="H12" s="3"/>
     </row>
     <row r="13" spans="1:8">
-      <c r="A13" s="4"/>
-      <c r="B13" s="4"/>
-      <c r="C13" s="4"/>
-      <c r="D13" s="4"/>
-      <c r="E13" s="4"/>
-      <c r="F13" s="4"/>
-      <c r="G13" s="4"/>
-      <c r="H13" s="4"/>
+      <c r="A13" s="3"/>
+      <c r="B13" s="3"/>
+      <c r="C13" s="3"/>
+      <c r="D13" s="3"/>
+      <c r="E13" s="3"/>
+      <c r="F13" s="3"/>
+      <c r="G13" s="3"/>
+      <c r="H13" s="3"/>
     </row>
     <row r="14" spans="1:8">
-      <c r="A14" s="4"/>
-      <c r="B14" s="4"/>
-      <c r="C14" s="4"/>
-      <c r="D14" s="4"/>
-      <c r="E14" s="4"/>
-      <c r="F14" s="4"/>
-      <c r="G14" s="4"/>
-      <c r="H14" s="4"/>
+      <c r="A14" s="3"/>
+      <c r="B14" s="3"/>
+      <c r="C14" s="3"/>
+      <c r="D14" s="3"/>
+      <c r="E14" s="3"/>
+      <c r="F14" s="3"/>
+      <c r="G14" s="3"/>
+      <c r="H14" s="3"/>
     </row>
     <row r="15" spans="1:8">
-      <c r="A15" s="4"/>
-      <c r="B15" s="4"/>
-      <c r="C15" s="4"/>
-      <c r="D15" s="4"/>
-      <c r="E15" s="4"/>
-      <c r="F15" s="4"/>
-      <c r="G15" s="4"/>
-      <c r="H15" s="4"/>
+      <c r="A15" s="3"/>
+      <c r="B15" s="3"/>
+      <c r="C15" s="3"/>
+      <c r="D15" s="3"/>
+      <c r="E15" s="3"/>
+      <c r="F15" s="3"/>
+      <c r="G15" s="3"/>
+      <c r="H15" s="3"/>
     </row>
     <row r="16" spans="1:8">
-      <c r="A16" s="4"/>
-      <c r="B16" s="4"/>
-      <c r="C16" s="4"/>
-      <c r="D16" s="4"/>
-      <c r="E16" s="4"/>
-      <c r="F16" s="4"/>
-      <c r="G16" s="4"/>
-      <c r="H16" s="4"/>
+      <c r="A16" s="3"/>
+      <c r="B16" s="3"/>
+      <c r="C16" s="3"/>
+      <c r="D16" s="3"/>
+      <c r="E16" s="3"/>
+      <c r="F16" s="3"/>
+      <c r="G16" s="3"/>
+      <c r="H16" s="3"/>
     </row>
     <row r="17" spans="1:8">
-      <c r="A17" s="4"/>
-      <c r="B17" s="4"/>
-      <c r="C17" s="4"/>
-      <c r="D17" s="4"/>
-      <c r="E17" s="4"/>
-      <c r="F17" s="4"/>
-      <c r="G17" s="4"/>
-      <c r="H17" s="4"/>
+      <c r="A17" s="3"/>
+      <c r="B17" s="3"/>
+      <c r="C17" s="3"/>
+      <c r="D17" s="3"/>
+      <c r="E17" s="3"/>
+      <c r="F17" s="3"/>
+      <c r="G17" s="3"/>
+      <c r="H17" s="3"/>
     </row>
     <row r="18" spans="1:8">
-      <c r="A18" s="4"/>
-      <c r="B18" s="4"/>
-      <c r="C18" s="4"/>
-      <c r="D18" s="4"/>
-      <c r="E18" s="4"/>
-      <c r="F18" s="4"/>
-      <c r="G18" s="4"/>
-      <c r="H18" s="4"/>
+      <c r="A18" s="3"/>
+      <c r="B18" s="3"/>
+      <c r="C18" s="3"/>
+      <c r="D18" s="3"/>
+      <c r="E18" s="3"/>
+      <c r="F18" s="3"/>
+      <c r="G18" s="3"/>
+      <c r="H18" s="3"/>
     </row>
     <row r="19" spans="1:8">
-      <c r="A19" s="4"/>
-      <c r="B19" s="4"/>
-      <c r="C19" s="4"/>
-      <c r="D19" s="4"/>
-      <c r="E19" s="4"/>
-      <c r="F19" s="4"/>
-      <c r="G19" s="4"/>
-      <c r="H19" s="4"/>
+      <c r="A19" s="3"/>
+      <c r="B19" s="3"/>
+      <c r="C19" s="3"/>
+      <c r="D19" s="3"/>
+      <c r="E19" s="3"/>
+      <c r="F19" s="3"/>
+      <c r="G19" s="3"/>
+      <c r="H19" s="3"/>
     </row>
     <row r="20" spans="1:8">
-      <c r="A20" s="4"/>
-      <c r="B20" s="4"/>
-      <c r="C20" s="4"/>
-      <c r="D20" s="4"/>
-      <c r="E20" s="4"/>
-      <c r="F20" s="4"/>
-      <c r="G20" s="4"/>
-      <c r="H20" s="4"/>
+      <c r="A20" s="3"/>
+      <c r="B20" s="3"/>
+      <c r="C20" s="3"/>
+      <c r="D20" s="3"/>
+      <c r="E20" s="3"/>
+      <c r="F20" s="3"/>
+      <c r="G20" s="3"/>
+      <c r="H20" s="3"/>
     </row>
     <row r="21" spans="1:8">
-      <c r="A21" s="4"/>
-      <c r="B21" s="4"/>
-      <c r="C21" s="4"/>
-      <c r="D21" s="4"/>
-      <c r="E21" s="4"/>
-      <c r="F21" s="4"/>
-      <c r="G21" s="4"/>
-      <c r="H21" s="4"/>
+      <c r="A21" s="3"/>
+      <c r="B21" s="3"/>
+      <c r="C21" s="3"/>
+      <c r="D21" s="3"/>
+      <c r="E21" s="3"/>
+      <c r="F21" s="3"/>
+      <c r="G21" s="3"/>
+      <c r="H21" s="3"/>
     </row>
     <row r="22" spans="1:8">
-      <c r="A22" s="4"/>
-      <c r="B22" s="4"/>
-      <c r="C22" s="4"/>
-      <c r="D22" s="4"/>
-      <c r="E22" s="4"/>
-      <c r="F22" s="4"/>
-      <c r="G22" s="4"/>
-      <c r="H22" s="4"/>
+      <c r="A22" s="3"/>
+      <c r="B22" s="3"/>
+      <c r="C22" s="3"/>
+      <c r="D22" s="3"/>
+      <c r="E22" s="3"/>
+      <c r="F22" s="3"/>
+      <c r="G22" s="3"/>
+      <c r="H22" s="3"/>
     </row>
     <row r="23" spans="1:8">
-      <c r="A23" s="4"/>
-      <c r="B23" s="4"/>
-      <c r="C23" s="4"/>
-      <c r="D23" s="4"/>
-      <c r="E23" s="4"/>
-      <c r="F23" s="4"/>
-      <c r="G23" s="4"/>
-      <c r="H23" s="4"/>
+      <c r="A23" s="3"/>
+      <c r="B23" s="3"/>
+      <c r="C23" s="3"/>
+      <c r="D23" s="3"/>
+      <c r="E23" s="3"/>
+      <c r="F23" s="3"/>
+      <c r="G23" s="3"/>
+      <c r="H23" s="3"/>
     </row>
     <row r="24" spans="1:8">
-      <c r="A24" s="4"/>
-      <c r="B24" s="4"/>
-      <c r="C24" s="4"/>
-      <c r="D24" s="4"/>
-      <c r="E24" s="4"/>
-      <c r="F24" s="4"/>
-      <c r="G24" s="4"/>
-      <c r="H24" s="4"/>
+      <c r="A24" s="3"/>
+      <c r="B24" s="3"/>
+      <c r="C24" s="3"/>
+      <c r="D24" s="3"/>
+      <c r="E24" s="3"/>
+      <c r="F24" s="3"/>
+      <c r="G24" s="3"/>
+      <c r="H24" s="3"/>
     </row>
     <row r="25" spans="1:8">
-      <c r="A25" s="4"/>
-      <c r="B25" s="4"/>
-      <c r="C25" s="4"/>
-      <c r="D25" s="4"/>
-      <c r="E25" s="4"/>
-      <c r="F25" s="4"/>
-      <c r="G25" s="4"/>
-      <c r="H25" s="4"/>
+      <c r="A25" s="3"/>
+      <c r="B25" s="3"/>
+      <c r="C25" s="3"/>
+      <c r="D25" s="3"/>
+      <c r="E25" s="3"/>
+      <c r="F25" s="3"/>
+      <c r="G25" s="3"/>
+      <c r="H25" s="3"/>
     </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="A10:H25"/>
   </mergeCells>
-  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter alignWithMargins="0"/>
-  <drawing r:id="rId1"/>
+  <drawing r:id="rId2"/>
+  <legacyDrawing r:id="rId3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr/>
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
   <sheetData/>
-  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter alignWithMargins="0"/>
 </worksheet>
